--- a/projects/LinkedIn_games/LinkedIn_games_data.xlsx
+++ b/projects/LinkedIn_games/LinkedIn_games_data.xlsx
@@ -1689,7 +1689,9 @@
       <c r="A39" s="1" t="n">
         <v>45813</v>
       </c>
-      <c r="B39"/>
+      <c r="B39" t="n">
+        <v>57</v>
+      </c>
       <c r="C39"/>
       <c r="D39"/>
       <c r="E39"/>
@@ -1698,736 +1700,6 @@
       <c r="H39"/>
       <c r="I39"/>
     </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>45814</v>
-      </c>
-      <c r="B40"/>
-      <c r="C40"/>
-      <c r="D40"/>
-      <c r="E40"/>
-      <c r="F40"/>
-      <c r="G40"/>
-      <c r="H40"/>
-      <c r="I40"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>45815</v>
-      </c>
-      <c r="B41"/>
-      <c r="C41"/>
-      <c r="D41"/>
-      <c r="E41"/>
-      <c r="F41"/>
-      <c r="G41"/>
-      <c r="H41"/>
-      <c r="I41"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>45816</v>
-      </c>
-      <c r="B42"/>
-      <c r="C42"/>
-      <c r="D42"/>
-      <c r="E42"/>
-      <c r="F42"/>
-      <c r="G42"/>
-      <c r="H42"/>
-      <c r="I42"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>45817</v>
-      </c>
-      <c r="B43"/>
-      <c r="C43"/>
-      <c r="D43"/>
-      <c r="E43"/>
-      <c r="F43"/>
-      <c r="G43"/>
-      <c r="H43"/>
-      <c r="I43"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>45818</v>
-      </c>
-      <c r="B44"/>
-      <c r="C44"/>
-      <c r="D44"/>
-      <c r="E44"/>
-      <c r="F44"/>
-      <c r="G44"/>
-      <c r="H44"/>
-      <c r="I44"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>45819</v>
-      </c>
-      <c r="B45"/>
-      <c r="C45"/>
-      <c r="D45"/>
-      <c r="E45"/>
-      <c r="F45"/>
-      <c r="G45"/>
-      <c r="H45"/>
-      <c r="I45"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>45820</v>
-      </c>
-      <c r="B46"/>
-      <c r="C46"/>
-      <c r="D46"/>
-      <c r="E46"/>
-      <c r="F46"/>
-      <c r="G46"/>
-      <c r="H46"/>
-      <c r="I46"/>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45821</v>
-      </c>
-      <c r="B47"/>
-      <c r="C47"/>
-      <c r="D47"/>
-      <c r="E47"/>
-      <c r="F47"/>
-      <c r="G47"/>
-      <c r="H47"/>
-      <c r="I47"/>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>45822</v>
-      </c>
-      <c r="B48"/>
-      <c r="C48"/>
-      <c r="D48"/>
-      <c r="E48"/>
-      <c r="F48"/>
-      <c r="G48"/>
-      <c r="H48"/>
-      <c r="I48"/>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>45823</v>
-      </c>
-      <c r="B49"/>
-      <c r="C49"/>
-      <c r="D49"/>
-      <c r="E49"/>
-      <c r="F49"/>
-      <c r="G49"/>
-      <c r="H49"/>
-      <c r="I49"/>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>45824</v>
-      </c>
-      <c r="B50"/>
-      <c r="C50"/>
-      <c r="D50"/>
-      <c r="E50"/>
-      <c r="F50"/>
-      <c r="G50"/>
-      <c r="H50"/>
-      <c r="I50"/>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>45825</v>
-      </c>
-      <c r="B51"/>
-      <c r="C51"/>
-      <c r="D51"/>
-      <c r="E51"/>
-      <c r="F51"/>
-      <c r="G51"/>
-      <c r="H51"/>
-      <c r="I51"/>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>45826</v>
-      </c>
-      <c r="B52"/>
-      <c r="C52"/>
-      <c r="D52"/>
-      <c r="E52"/>
-      <c r="F52"/>
-      <c r="G52"/>
-      <c r="H52"/>
-      <c r="I52"/>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>45827</v>
-      </c>
-      <c r="B53"/>
-      <c r="C53"/>
-      <c r="D53"/>
-      <c r="E53"/>
-      <c r="F53"/>
-      <c r="G53"/>
-      <c r="H53"/>
-      <c r="I53"/>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>45828</v>
-      </c>
-      <c r="B54"/>
-      <c r="C54"/>
-      <c r="D54"/>
-      <c r="E54"/>
-      <c r="F54"/>
-      <c r="G54"/>
-      <c r="H54"/>
-      <c r="I54"/>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>45829</v>
-      </c>
-      <c r="B55"/>
-      <c r="C55"/>
-      <c r="D55"/>
-      <c r="E55"/>
-      <c r="F55"/>
-      <c r="G55"/>
-      <c r="H55"/>
-      <c r="I55"/>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>45830</v>
-      </c>
-      <c r="B56"/>
-      <c r="C56"/>
-      <c r="D56"/>
-      <c r="E56"/>
-      <c r="F56"/>
-      <c r="G56"/>
-      <c r="H56"/>
-      <c r="I56"/>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>45831</v>
-      </c>
-      <c r="B57"/>
-      <c r="C57"/>
-      <c r="D57"/>
-      <c r="E57"/>
-      <c r="F57"/>
-      <c r="G57"/>
-      <c r="H57"/>
-      <c r="I57"/>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>45832</v>
-      </c>
-      <c r="B58"/>
-      <c r="C58"/>
-      <c r="D58"/>
-      <c r="E58"/>
-      <c r="F58"/>
-      <c r="G58"/>
-      <c r="H58"/>
-      <c r="I58"/>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>45833</v>
-      </c>
-      <c r="B59"/>
-      <c r="C59"/>
-      <c r="D59"/>
-      <c r="E59"/>
-      <c r="F59"/>
-      <c r="G59"/>
-      <c r="H59"/>
-      <c r="I59"/>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>45834</v>
-      </c>
-      <c r="B60"/>
-      <c r="C60"/>
-      <c r="D60"/>
-      <c r="E60"/>
-      <c r="F60"/>
-      <c r="G60"/>
-      <c r="H60"/>
-      <c r="I60"/>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>45835</v>
-      </c>
-      <c r="B61"/>
-      <c r="C61"/>
-      <c r="D61"/>
-      <c r="E61"/>
-      <c r="F61"/>
-      <c r="G61"/>
-      <c r="H61"/>
-      <c r="I61"/>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>45836</v>
-      </c>
-      <c r="B62"/>
-      <c r="C62"/>
-      <c r="D62"/>
-      <c r="E62"/>
-      <c r="F62"/>
-      <c r="G62"/>
-      <c r="H62"/>
-      <c r="I62"/>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>45837</v>
-      </c>
-      <c r="B63"/>
-      <c r="C63"/>
-      <c r="D63"/>
-      <c r="E63"/>
-      <c r="F63"/>
-      <c r="G63"/>
-      <c r="H63"/>
-      <c r="I63"/>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>45838</v>
-      </c>
-      <c r="B64"/>
-      <c r="C64"/>
-      <c r="D64"/>
-      <c r="E64"/>
-      <c r="F64"/>
-      <c r="G64"/>
-      <c r="H64"/>
-      <c r="I64"/>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>45839</v>
-      </c>
-      <c r="B65"/>
-      <c r="C65"/>
-      <c r="D65"/>
-      <c r="E65"/>
-      <c r="F65"/>
-      <c r="G65"/>
-      <c r="H65"/>
-      <c r="I65"/>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>45840</v>
-      </c>
-      <c r="B66"/>
-      <c r="C66"/>
-      <c r="D66"/>
-      <c r="E66"/>
-      <c r="F66"/>
-      <c r="G66"/>
-      <c r="H66"/>
-      <c r="I66"/>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>45841</v>
-      </c>
-      <c r="B67"/>
-      <c r="C67"/>
-      <c r="D67"/>
-      <c r="E67"/>
-      <c r="F67"/>
-      <c r="G67"/>
-      <c r="H67"/>
-      <c r="I67"/>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>45842</v>
-      </c>
-      <c r="B68"/>
-      <c r="C68"/>
-      <c r="D68"/>
-      <c r="E68"/>
-      <c r="F68"/>
-      <c r="G68"/>
-      <c r="H68"/>
-      <c r="I68"/>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>45843</v>
-      </c>
-      <c r="B69"/>
-      <c r="C69"/>
-      <c r="D69"/>
-      <c r="E69"/>
-      <c r="F69"/>
-      <c r="G69"/>
-      <c r="H69"/>
-      <c r="I69"/>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>45844</v>
-      </c>
-      <c r="B70"/>
-      <c r="C70"/>
-      <c r="D70"/>
-      <c r="E70"/>
-      <c r="F70"/>
-      <c r="G70"/>
-      <c r="H70"/>
-      <c r="I70"/>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>45845</v>
-      </c>
-      <c r="B71"/>
-      <c r="C71"/>
-      <c r="D71"/>
-      <c r="E71"/>
-      <c r="F71"/>
-      <c r="G71"/>
-      <c r="H71"/>
-      <c r="I71"/>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>45846</v>
-      </c>
-      <c r="B72"/>
-      <c r="C72"/>
-      <c r="D72"/>
-      <c r="E72"/>
-      <c r="F72"/>
-      <c r="G72"/>
-      <c r="H72"/>
-      <c r="I72"/>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>45847</v>
-      </c>
-      <c r="B73"/>
-      <c r="C73"/>
-      <c r="D73"/>
-      <c r="E73"/>
-      <c r="F73"/>
-      <c r="G73"/>
-      <c r="H73"/>
-      <c r="I73"/>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
-        <v>45848</v>
-      </c>
-      <c r="B74"/>
-      <c r="C74"/>
-      <c r="D74"/>
-      <c r="E74"/>
-      <c r="F74"/>
-      <c r="G74"/>
-      <c r="H74"/>
-      <c r="I74"/>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>45849</v>
-      </c>
-      <c r="B75"/>
-      <c r="C75"/>
-      <c r="D75"/>
-      <c r="E75"/>
-      <c r="F75"/>
-      <c r="G75"/>
-      <c r="H75"/>
-      <c r="I75"/>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="n">
-        <v>45850</v>
-      </c>
-      <c r="B76"/>
-      <c r="C76"/>
-      <c r="D76"/>
-      <c r="E76"/>
-      <c r="F76"/>
-      <c r="G76"/>
-      <c r="H76"/>
-      <c r="I76"/>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="n">
-        <v>45851</v>
-      </c>
-      <c r="B77"/>
-      <c r="C77"/>
-      <c r="D77"/>
-      <c r="E77"/>
-      <c r="F77"/>
-      <c r="G77"/>
-      <c r="H77"/>
-      <c r="I77"/>
-    </row>
-    <row r="78">
-      <c r="A78" s="1" t="n">
-        <v>45852</v>
-      </c>
-      <c r="B78"/>
-      <c r="C78"/>
-      <c r="D78"/>
-      <c r="E78"/>
-      <c r="F78"/>
-      <c r="G78"/>
-      <c r="H78"/>
-      <c r="I78"/>
-    </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
-        <v>45853</v>
-      </c>
-      <c r="B79"/>
-      <c r="C79"/>
-      <c r="D79"/>
-      <c r="E79"/>
-      <c r="F79"/>
-      <c r="G79"/>
-      <c r="H79"/>
-      <c r="I79"/>
-    </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
-        <v>45854</v>
-      </c>
-      <c r="B80"/>
-      <c r="C80"/>
-      <c r="D80"/>
-      <c r="E80"/>
-      <c r="F80"/>
-      <c r="G80"/>
-      <c r="H80"/>
-      <c r="I80"/>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>45855</v>
-      </c>
-      <c r="B81"/>
-      <c r="C81"/>
-      <c r="D81"/>
-      <c r="E81"/>
-      <c r="F81"/>
-      <c r="G81"/>
-      <c r="H81"/>
-      <c r="I81"/>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>45856</v>
-      </c>
-      <c r="B82"/>
-      <c r="C82"/>
-      <c r="D82"/>
-      <c r="E82"/>
-      <c r="F82"/>
-      <c r="G82"/>
-      <c r="H82"/>
-      <c r="I82"/>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>45857</v>
-      </c>
-      <c r="B83"/>
-      <c r="C83"/>
-      <c r="D83"/>
-      <c r="E83"/>
-      <c r="F83"/>
-      <c r="G83"/>
-      <c r="H83"/>
-      <c r="I83"/>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>45858</v>
-      </c>
-      <c r="B84"/>
-      <c r="C84"/>
-      <c r="D84"/>
-      <c r="E84"/>
-      <c r="F84"/>
-      <c r="G84"/>
-      <c r="H84"/>
-      <c r="I84"/>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>45859</v>
-      </c>
-      <c r="B85"/>
-      <c r="C85"/>
-      <c r="D85"/>
-      <c r="E85"/>
-      <c r="F85"/>
-      <c r="G85"/>
-      <c r="H85"/>
-      <c r="I85"/>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>45860</v>
-      </c>
-      <c r="B86"/>
-      <c r="C86"/>
-      <c r="D86"/>
-      <c r="E86"/>
-      <c r="F86"/>
-      <c r="G86"/>
-      <c r="H86"/>
-      <c r="I86"/>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>45861</v>
-      </c>
-      <c r="B87"/>
-      <c r="C87"/>
-      <c r="D87"/>
-      <c r="E87"/>
-      <c r="F87"/>
-      <c r="G87"/>
-      <c r="H87"/>
-      <c r="I87"/>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>45862</v>
-      </c>
-      <c r="B88"/>
-      <c r="C88"/>
-      <c r="D88"/>
-      <c r="E88"/>
-      <c r="F88"/>
-      <c r="G88"/>
-      <c r="H88"/>
-      <c r="I88"/>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>45863</v>
-      </c>
-      <c r="B89"/>
-      <c r="C89"/>
-      <c r="D89"/>
-      <c r="E89"/>
-      <c r="F89"/>
-      <c r="G89"/>
-      <c r="H89"/>
-      <c r="I89"/>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>45864</v>
-      </c>
-      <c r="B90"/>
-      <c r="C90"/>
-      <c r="D90"/>
-      <c r="E90"/>
-      <c r="F90"/>
-      <c r="G90"/>
-      <c r="H90"/>
-      <c r="I90"/>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>45865</v>
-      </c>
-      <c r="B91"/>
-      <c r="C91"/>
-      <c r="D91"/>
-      <c r="E91"/>
-      <c r="F91"/>
-      <c r="G91"/>
-      <c r="H91"/>
-      <c r="I91"/>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>45866</v>
-      </c>
-      <c r="B92"/>
-      <c r="C92"/>
-      <c r="D92"/>
-      <c r="E92"/>
-      <c r="F92"/>
-      <c r="G92"/>
-      <c r="H92"/>
-      <c r="I92"/>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>45867</v>
-      </c>
-      <c r="B93"/>
-      <c r="C93"/>
-      <c r="D93"/>
-      <c r="E93"/>
-      <c r="F93"/>
-      <c r="G93"/>
-      <c r="H93"/>
-      <c r="I93"/>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>45868</v>
-      </c>
-      <c r="B94"/>
-      <c r="C94"/>
-      <c r="D94"/>
-      <c r="E94"/>
-      <c r="F94"/>
-      <c r="G94"/>
-      <c r="H94"/>
-      <c r="I94"/>
-    </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>45869</v>
-      </c>
-      <c r="B95" t="n">
-        <v>57</v>
-      </c>
-      <c r="C95"/>
-      <c r="D95"/>
-      <c r="E95"/>
-      <c r="F95"/>
-      <c r="G95"/>
-      <c r="H95"/>
-      <c r="I95"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/projects/LinkedIn_games/LinkedIn_games_data.xlsx
+++ b/projects/LinkedIn_games/LinkedIn_games_data.xlsx
@@ -1693,7 +1693,9 @@
         <v>57</v>
       </c>
       <c r="C39"/>
-      <c r="D39"/>
+      <c r="D39" t="s">
+        <v>14</v>
+      </c>
       <c r="E39"/>
       <c r="F39"/>
       <c r="G39"/>

--- a/projects/LinkedIn_games/LinkedIn_games_data.xlsx
+++ b/projects/LinkedIn_games/LinkedIn_games_data.xlsx
@@ -1692,7 +1692,9 @@
       <c r="B39" t="n">
         <v>57</v>
       </c>
-      <c r="C39"/>
+      <c r="C39" t="n">
+        <v>8</v>
+      </c>
       <c r="D39" t="s">
         <v>14</v>
       </c>

--- a/projects/LinkedIn_games/LinkedIn_games_data.xlsx
+++ b/projects/LinkedIn_games/LinkedIn_games_data.xlsx
@@ -1698,7 +1698,9 @@
       <c r="D39" t="s">
         <v>14</v>
       </c>
-      <c r="E39"/>
+      <c r="E39" t="n">
+        <v>91</v>
+      </c>
       <c r="F39"/>
       <c r="G39"/>
       <c r="H39"/>

--- a/projects/LinkedIn_games/LinkedIn_games_data.xlsx
+++ b/projects/LinkedIn_games/LinkedIn_games_data.xlsx
@@ -1,259 +1,272 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <workbookPr date1904="false"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hullacuk-my.sharepoint.com/personal/c_ho-2023_hull_ac_uk/Documents/Github/Quarto-Website/PersonalWebsite/projects/LinkedIn_games/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="3" documentId="11_DEEE713E0069E2D40CE426FA5F7C99F3AC451748" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8C17AF92-FD1C-4B15-ADE2-C9C98A35B46E}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="2850" yWindow="1095" windowWidth="18000" windowHeight="10440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
-  <si>
-    <t xml:space="preserve">date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CW_T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CW_Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CW_P</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CW_C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PM_T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PM_Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PM_P</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PM_C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">66</t>
-  </si>
-  <si>
-    <t xml:space="preserve">68</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">87</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">77</t>
-  </si>
-  <si>
-    <t xml:space="preserve">239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">81</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">69</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">74</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">260</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60</t>
-  </si>
-  <si>
-    <t xml:space="preserve">159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">85</t>
-  </si>
-  <si>
-    <t xml:space="preserve">99</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">73</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="80">
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>CW_T</t>
+  </si>
+  <si>
+    <t>CW_Z</t>
+  </si>
+  <si>
+    <t>CW_P</t>
+  </si>
+  <si>
+    <t>CW_C</t>
+  </si>
+  <si>
+    <t>PM_T</t>
+  </si>
+  <si>
+    <t>PM_Z</t>
+  </si>
+  <si>
+    <t>PM_P</t>
+  </si>
+  <si>
+    <t>PM_C</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>239</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>112</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>260</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>159</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>144</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>219</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>135</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>167</t>
+  </si>
+  <si>
+    <t>168</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>137</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -289,12 +302,21 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -576,14 +598,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="H42" sqref="H42"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -612,20 +636,20 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
         <v>45776</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>32</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>15</v>
       </c>
       <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>105</v>
       </c>
       <c r="F2" t="s">
@@ -641,20 +665,20 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>45777</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>51</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>14</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>47</v>
       </c>
       <c r="F3" t="s">
@@ -670,20 +694,20 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>45778</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>61</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>23</v>
       </c>
       <c r="D4" t="s">
         <v>14</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>37</v>
       </c>
       <c r="F4" t="s">
@@ -699,20 +723,20 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>45779</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>131</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>46</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>52</v>
       </c>
       <c r="F5" t="s">
@@ -728,20 +752,20 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>45780</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>154</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>40</v>
       </c>
       <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>82</v>
       </c>
       <c r="F6" t="s">
@@ -757,20 +781,20 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>45781</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>65</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>85</v>
       </c>
       <c r="D7" t="s">
         <v>12</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
         <v>108</v>
       </c>
       <c r="F7" t="s">
@@ -786,20 +810,20 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
         <v>45782</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>22</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>8</v>
       </c>
       <c r="D8" t="s">
         <v>14</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
         <v>41</v>
       </c>
       <c r="F8" t="s">
@@ -815,20 +839,20 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
         <v>45783</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>30</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>7</v>
       </c>
       <c r="D9" t="s">
         <v>14</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
         <v>39</v>
       </c>
       <c r="F9" t="s">
@@ -844,20 +868,20 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
         <v>45784</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>37</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>8</v>
       </c>
       <c r="D10" t="s">
         <v>12</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
         <v>89</v>
       </c>
       <c r="F10" t="s">
@@ -873,20 +897,20 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
         <v>45785</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>40</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>29</v>
       </c>
       <c r="D11" t="s">
         <v>12</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
         <v>69</v>
       </c>
       <c r="F11" t="s">
@@ -902,20 +926,20 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
         <v>45786</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>55</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>14</v>
       </c>
       <c r="D12" t="s">
         <v>26</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12">
         <v>36</v>
       </c>
       <c r="F12" t="s">
@@ -931,20 +955,20 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
         <v>45787</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>123</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13">
         <v>56</v>
       </c>
       <c r="D13" t="s">
         <v>36</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13">
         <v>69</v>
       </c>
       <c r="F13" t="s">
@@ -960,20 +984,20 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
         <v>45788</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>36</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14">
         <v>49</v>
       </c>
       <c r="D14" t="s">
         <v>26</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14">
         <v>63</v>
       </c>
       <c r="F14" t="s">
@@ -989,20 +1013,20 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
         <v>45789</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>28</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15">
         <v>11</v>
       </c>
       <c r="D15" t="s">
         <v>14</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15">
         <v>71</v>
       </c>
       <c r="F15" t="s">
@@ -1018,20 +1042,20 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
         <v>45790</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>31</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16">
         <v>9</v>
       </c>
       <c r="D16" t="s">
         <v>12</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16">
         <v>49</v>
       </c>
       <c r="F16" t="s">
@@ -1047,20 +1071,20 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
         <v>45791</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>64</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17">
         <v>8</v>
       </c>
       <c r="D17" t="s">
         <v>12</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E17">
         <v>42</v>
       </c>
       <c r="F17" t="s">
@@ -1076,20 +1100,20 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
         <v>45792</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>90</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18">
         <v>246</v>
       </c>
       <c r="D18" t="s">
         <v>26</v>
       </c>
-      <c r="E18" t="n">
+      <c r="E18">
         <v>57</v>
       </c>
       <c r="F18" t="s">
@@ -1105,20 +1129,20 @@
         <v>46</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
         <v>45793</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>30</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19">
         <v>15</v>
       </c>
       <c r="D19" t="s">
         <v>26</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E19">
         <v>78</v>
       </c>
       <c r="F19" t="s">
@@ -1134,20 +1158,20 @@
         <v>54</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
         <v>45794</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>38</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20">
         <v>45</v>
       </c>
       <c r="D20" t="s">
         <v>14</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E20">
         <v>99</v>
       </c>
       <c r="F20" t="s">
@@ -1163,20 +1187,20 @@
         <v>41</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
         <v>45795</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>39</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21">
         <v>54</v>
       </c>
       <c r="D21" t="s">
         <v>14</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E21">
         <v>46</v>
       </c>
       <c r="F21" t="s">
@@ -1192,20 +1216,20 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
         <v>45796</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>17</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C22">
         <v>22</v>
       </c>
       <c r="D22" t="s">
         <v>9</v>
       </c>
-      <c r="E22" t="n">
+      <c r="E22">
         <v>64</v>
       </c>
       <c r="F22" t="s">
@@ -1221,20 +1245,20 @@
         <v>59</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
         <v>45797</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23">
         <v>31</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23">
         <v>12</v>
       </c>
       <c r="D23" t="s">
         <v>26</v>
       </c>
-      <c r="E23" t="n">
+      <c r="E23">
         <v>38</v>
       </c>
       <c r="F23" t="s">
@@ -1250,20 +1274,20 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
         <v>45798</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24">
         <v>40</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C24">
         <v>17</v>
       </c>
       <c r="D24" t="s">
         <v>12</v>
       </c>
-      <c r="E24" t="n">
+      <c r="E24">
         <v>63</v>
       </c>
       <c r="F24" t="s">
@@ -1279,20 +1303,20 @@
         <v>33</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
         <v>45799</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25">
         <v>32</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C25">
         <v>46</v>
       </c>
       <c r="D25" t="s">
         <v>14</v>
       </c>
-      <c r="E25" t="n">
+      <c r="E25">
         <v>35</v>
       </c>
       <c r="F25" t="s">
@@ -1308,20 +1332,20 @@
         <v>62</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
         <v>45800</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26">
         <v>60</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C26">
         <v>19</v>
       </c>
       <c r="D26" t="s">
         <v>26</v>
       </c>
-      <c r="E26" t="n">
+      <c r="E26">
         <v>42</v>
       </c>
       <c r="F26" t="s">
@@ -1337,20 +1361,20 @@
         <v>29</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
         <v>45801</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B27">
         <v>43</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C27">
         <v>27</v>
       </c>
       <c r="D27" t="s">
         <v>26</v>
       </c>
-      <c r="E27" t="n">
+      <c r="E27">
         <v>70</v>
       </c>
       <c r="F27" t="s">
@@ -1366,20 +1390,20 @@
         <v>66</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
         <v>45802</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B28">
         <v>40</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C28">
         <v>15</v>
       </c>
       <c r="D28" t="s">
         <v>26</v>
       </c>
-      <c r="E28" t="n">
+      <c r="E28">
         <v>46</v>
       </c>
       <c r="F28" t="s">
@@ -1395,20 +1419,20 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
         <v>45803</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B29">
         <v>19</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C29">
         <v>12</v>
       </c>
       <c r="D29" t="s">
         <v>14</v>
       </c>
-      <c r="E29" t="n">
+      <c r="E29">
         <v>87</v>
       </c>
       <c r="F29" t="s">
@@ -1424,20 +1448,20 @@
         <v>69</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
         <v>45804</v>
       </c>
-      <c r="B30" t="n">
+      <c r="B30">
         <v>31</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C30">
         <v>13</v>
       </c>
       <c r="D30" t="s">
         <v>26</v>
       </c>
-      <c r="E30" t="n">
+      <c r="E30">
         <v>46</v>
       </c>
       <c r="F30" t="s">
@@ -1453,20 +1477,20 @@
         <v>54</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
         <v>45805</v>
       </c>
-      <c r="B31" t="n">
+      <c r="B31">
         <v>31</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C31">
         <v>28</v>
       </c>
       <c r="D31" t="s">
         <v>14</v>
       </c>
-      <c r="E31" t="n">
+      <c r="E31">
         <v>45</v>
       </c>
       <c r="F31" t="s">
@@ -1482,20 +1506,20 @@
         <v>40</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
         <v>45806</v>
       </c>
-      <c r="B32" t="n">
+      <c r="B32">
         <v>57</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C32">
         <v>10</v>
       </c>
       <c r="D32" t="s">
         <v>12</v>
       </c>
-      <c r="E32" t="n">
+      <c r="E32">
         <v>67</v>
       </c>
       <c r="F32" t="s">
@@ -1511,20 +1535,20 @@
         <v>72</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
         <v>45807</v>
       </c>
-      <c r="B33" t="n">
+      <c r="B33">
         <v>52</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C33">
         <v>11</v>
       </c>
       <c r="D33" t="s">
         <v>9</v>
       </c>
-      <c r="E33" t="n">
+      <c r="E33">
         <v>40</v>
       </c>
       <c r="F33" t="s">
@@ -1540,20 +1564,20 @@
         <v>27</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
         <v>45808</v>
       </c>
-      <c r="B34" t="n">
+      <c r="B34">
         <v>117</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C34">
         <v>20</v>
       </c>
       <c r="D34" t="s">
         <v>14</v>
       </c>
-      <c r="E34" t="n">
+      <c r="E34">
         <v>115</v>
       </c>
       <c r="F34" t="s">
@@ -1569,20 +1593,20 @@
         <v>75</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
         <v>45809</v>
       </c>
-      <c r="B35" t="n">
+      <c r="B35">
         <v>47</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C35">
         <v>110</v>
       </c>
       <c r="D35" t="s">
         <v>26</v>
       </c>
-      <c r="E35" t="n">
+      <c r="E35">
         <v>60</v>
       </c>
       <c r="F35" t="s">
@@ -1598,20 +1622,20 @@
         <v>67</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
         <v>45810</v>
       </c>
-      <c r="B36" t="n">
+      <c r="B36">
         <v>7</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C36">
         <v>33</v>
       </c>
       <c r="D36" t="s">
         <v>36</v>
       </c>
-      <c r="E36" t="n">
+      <c r="E36">
         <v>31</v>
       </c>
       <c r="F36" t="s">
@@ -1627,20 +1651,20 @@
         <v>69</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
         <v>45811</v>
       </c>
-      <c r="B37" t="n">
+      <c r="B37">
         <v>25</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C37">
         <v>10</v>
       </c>
       <c r="D37" t="s">
         <v>36</v>
       </c>
-      <c r="E37" t="n">
+      <c r="E37">
         <v>53</v>
       </c>
       <c r="F37" t="s">
@@ -1656,20 +1680,20 @@
         <v>23</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
         <v>45812</v>
       </c>
-      <c r="B38" t="n">
+      <c r="B38">
         <v>29</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C38">
         <v>10</v>
       </c>
       <c r="D38" t="s">
         <v>26</v>
       </c>
-      <c r="E38" t="n">
+      <c r="E38">
         <v>43</v>
       </c>
       <c r="F38" t="s">
@@ -1685,29 +1709,57 @@
         <v>23</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
         <v>45813</v>
       </c>
-      <c r="B39" t="n">
+      <c r="B39">
         <v>57</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C39">
         <v>8</v>
       </c>
       <c r="D39" t="s">
         <v>14</v>
       </c>
-      <c r="E39" t="n">
+      <c r="E39">
         <v>91</v>
       </c>
-      <c r="F39"/>
-      <c r="G39"/>
-      <c r="H39"/>
-      <c r="I39"/>
+      <c r="F39" t="s">
+        <v>62</v>
+      </c>
+      <c r="G39" t="s">
+        <v>72</v>
+      </c>
+      <c r="H39" t="s">
+        <v>12</v>
+      </c>
+      <c r="I39" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>45814</v>
+      </c>
+      <c r="F40" t="s">
+        <v>34</v>
+      </c>
+      <c r="G40" t="s">
+        <v>50</v>
+      </c>
+      <c r="H40" t="s">
+        <v>14</v>
+      </c>
+      <c r="I40" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/projects/LinkedIn_games/LinkedIn_games_data.xlsx
+++ b/projects/LinkedIn_games/LinkedIn_games_data.xlsx
@@ -1,272 +1,265 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hullacuk-my.sharepoint.com/personal/c_ho-2023_hull_ac_uk/Documents/Github/Quarto-Website/PersonalWebsite/projects/LinkedIn_games/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_DEEE713E0069E2D40CE426FA5F7C99F3AC451748" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8C17AF92-FD1C-4B15-ADE2-C9C98A35B46E}"/>
+  <workbookPr date1904="false"/>
   <bookViews>
-    <workbookView xWindow="2850" yWindow="1095" windowWidth="18000" windowHeight="10440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="80">
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>CW_T</t>
-  </si>
-  <si>
-    <t>CW_Z</t>
-  </si>
-  <si>
-    <t>CW_P</t>
-  </si>
-  <si>
-    <t>CW_C</t>
-  </si>
-  <si>
-    <t>PM_T</t>
-  </si>
-  <si>
-    <t>PM_Z</t>
-  </si>
-  <si>
-    <t>PM_P</t>
-  </si>
-  <si>
-    <t>PM_C</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>61</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>56</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>66</t>
-  </si>
-  <si>
-    <t>68</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>87</t>
-  </si>
-  <si>
-    <t>47</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>77</t>
-  </si>
-  <si>
-    <t>239</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>112</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>64</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>54</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>81</t>
-  </si>
-  <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t>69</t>
-  </si>
-  <si>
-    <t>65</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>74</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>63</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>260</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>159</t>
-  </si>
-  <si>
-    <t>58</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>55</t>
-  </si>
-  <si>
-    <t>144</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>219</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>85</t>
-  </si>
-  <si>
-    <t>99</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t>135</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>167</t>
-  </si>
-  <si>
-    <t>168</t>
-  </si>
-  <si>
-    <t>73</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>70</t>
-  </si>
-  <si>
-    <t>137</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
+  <si>
+    <t xml:space="preserve">date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CW_T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CW_Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CW_P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CW_C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PM_T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PM_Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PM_P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PM_C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">87</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">77</t>
+  </si>
+  <si>
+    <t xml:space="preserve">239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">81</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">69</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">74</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">260</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">85</t>
+  </si>
+  <si>
+    <t xml:space="preserve">99</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">73</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">70</t>
+  </si>
+  <si>
+    <t xml:space="preserve">137</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -302,21 +295,12 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -598,16 +582,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="H42" sqref="H42"/>
-    </sheetView>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -636,20 +618,20 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>45776</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="n">
         <v>32</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="n">
         <v>15</v>
       </c>
       <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="n">
         <v>105</v>
       </c>
       <c r="F2" t="s">
@@ -665,20 +647,20 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>45777</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="n">
         <v>51</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="n">
         <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>14</v>
       </c>
-      <c r="E3">
+      <c r="E3" t="n">
         <v>47</v>
       </c>
       <c r="F3" t="s">
@@ -694,20 +676,20 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+    <row r="4">
+      <c r="A4" s="1" t="n">
         <v>45778</v>
       </c>
-      <c r="B4">
+      <c r="B4" t="n">
         <v>61</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="n">
         <v>23</v>
       </c>
       <c r="D4" t="s">
         <v>14</v>
       </c>
-      <c r="E4">
+      <c r="E4" t="n">
         <v>37</v>
       </c>
       <c r="F4" t="s">
@@ -723,20 +705,20 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+    <row r="5">
+      <c r="A5" s="1" t="n">
         <v>45779</v>
       </c>
-      <c r="B5">
+      <c r="B5" t="n">
         <v>131</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="n">
         <v>46</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
       </c>
-      <c r="E5">
+      <c r="E5" t="n">
         <v>52</v>
       </c>
       <c r="F5" t="s">
@@ -752,20 +734,20 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+    <row r="6">
+      <c r="A6" s="1" t="n">
         <v>45780</v>
       </c>
-      <c r="B6">
+      <c r="B6" t="n">
         <v>154</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="n">
         <v>40</v>
       </c>
       <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="E6">
+      <c r="E6" t="n">
         <v>82</v>
       </c>
       <c r="F6" t="s">
@@ -781,20 +763,20 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+    <row r="7">
+      <c r="A7" s="1" t="n">
         <v>45781</v>
       </c>
-      <c r="B7">
+      <c r="B7" t="n">
         <v>65</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="n">
         <v>85</v>
       </c>
       <c r="D7" t="s">
         <v>12</v>
       </c>
-      <c r="E7">
+      <c r="E7" t="n">
         <v>108</v>
       </c>
       <c r="F7" t="s">
@@ -810,20 +792,20 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+    <row r="8">
+      <c r="A8" s="1" t="n">
         <v>45782</v>
       </c>
-      <c r="B8">
+      <c r="B8" t="n">
         <v>22</v>
       </c>
-      <c r="C8">
+      <c r="C8" t="n">
         <v>8</v>
       </c>
       <c r="D8" t="s">
         <v>14</v>
       </c>
-      <c r="E8">
+      <c r="E8" t="n">
         <v>41</v>
       </c>
       <c r="F8" t="s">
@@ -839,20 +821,20 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+    <row r="9">
+      <c r="A9" s="1" t="n">
         <v>45783</v>
       </c>
-      <c r="B9">
+      <c r="B9" t="n">
         <v>30</v>
       </c>
-      <c r="C9">
+      <c r="C9" t="n">
         <v>7</v>
       </c>
       <c r="D9" t="s">
         <v>14</v>
       </c>
-      <c r="E9">
+      <c r="E9" t="n">
         <v>39</v>
       </c>
       <c r="F9" t="s">
@@ -868,20 +850,20 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+    <row r="10">
+      <c r="A10" s="1" t="n">
         <v>45784</v>
       </c>
-      <c r="B10">
+      <c r="B10" t="n">
         <v>37</v>
       </c>
-      <c r="C10">
+      <c r="C10" t="n">
         <v>8</v>
       </c>
       <c r="D10" t="s">
         <v>12</v>
       </c>
-      <c r="E10">
+      <c r="E10" t="n">
         <v>89</v>
       </c>
       <c r="F10" t="s">
@@ -897,20 +879,20 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+    <row r="11">
+      <c r="A11" s="1" t="n">
         <v>45785</v>
       </c>
-      <c r="B11">
+      <c r="B11" t="n">
         <v>40</v>
       </c>
-      <c r="C11">
+      <c r="C11" t="n">
         <v>29</v>
       </c>
       <c r="D11" t="s">
         <v>12</v>
       </c>
-      <c r="E11">
+      <c r="E11" t="n">
         <v>69</v>
       </c>
       <c r="F11" t="s">
@@ -926,20 +908,20 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
+    <row r="12">
+      <c r="A12" s="1" t="n">
         <v>45786</v>
       </c>
-      <c r="B12">
+      <c r="B12" t="n">
         <v>55</v>
       </c>
-      <c r="C12">
+      <c r="C12" t="n">
         <v>14</v>
       </c>
       <c r="D12" t="s">
         <v>26</v>
       </c>
-      <c r="E12">
+      <c r="E12" t="n">
         <v>36</v>
       </c>
       <c r="F12" t="s">
@@ -955,20 +937,20 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+    <row r="13">
+      <c r="A13" s="1" t="n">
         <v>45787</v>
       </c>
-      <c r="B13">
+      <c r="B13" t="n">
         <v>123</v>
       </c>
-      <c r="C13">
+      <c r="C13" t="n">
         <v>56</v>
       </c>
       <c r="D13" t="s">
         <v>36</v>
       </c>
-      <c r="E13">
+      <c r="E13" t="n">
         <v>69</v>
       </c>
       <c r="F13" t="s">
@@ -984,20 +966,20 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
+    <row r="14">
+      <c r="A14" s="1" t="n">
         <v>45788</v>
       </c>
-      <c r="B14">
+      <c r="B14" t="n">
         <v>36</v>
       </c>
-      <c r="C14">
+      <c r="C14" t="n">
         <v>49</v>
       </c>
       <c r="D14" t="s">
         <v>26</v>
       </c>
-      <c r="E14">
+      <c r="E14" t="n">
         <v>63</v>
       </c>
       <c r="F14" t="s">
@@ -1013,20 +995,20 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
+    <row r="15">
+      <c r="A15" s="1" t="n">
         <v>45789</v>
       </c>
-      <c r="B15">
+      <c r="B15" t="n">
         <v>28</v>
       </c>
-      <c r="C15">
+      <c r="C15" t="n">
         <v>11</v>
       </c>
       <c r="D15" t="s">
         <v>14</v>
       </c>
-      <c r="E15">
+      <c r="E15" t="n">
         <v>71</v>
       </c>
       <c r="F15" t="s">
@@ -1042,20 +1024,20 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
+    <row r="16">
+      <c r="A16" s="1" t="n">
         <v>45790</v>
       </c>
-      <c r="B16">
+      <c r="B16" t="n">
         <v>31</v>
       </c>
-      <c r="C16">
+      <c r="C16" t="n">
         <v>9</v>
       </c>
       <c r="D16" t="s">
         <v>12</v>
       </c>
-      <c r="E16">
+      <c r="E16" t="n">
         <v>49</v>
       </c>
       <c r="F16" t="s">
@@ -1071,20 +1053,20 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
+    <row r="17">
+      <c r="A17" s="1" t="n">
         <v>45791</v>
       </c>
-      <c r="B17">
+      <c r="B17" t="n">
         <v>64</v>
       </c>
-      <c r="C17">
+      <c r="C17" t="n">
         <v>8</v>
       </c>
       <c r="D17" t="s">
         <v>12</v>
       </c>
-      <c r="E17">
+      <c r="E17" t="n">
         <v>42</v>
       </c>
       <c r="F17" t="s">
@@ -1100,20 +1082,20 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
+    <row r="18">
+      <c r="A18" s="1" t="n">
         <v>45792</v>
       </c>
-      <c r="B18">
+      <c r="B18" t="n">
         <v>90</v>
       </c>
-      <c r="C18">
+      <c r="C18" t="n">
         <v>246</v>
       </c>
       <c r="D18" t="s">
         <v>26</v>
       </c>
-      <c r="E18">
+      <c r="E18" t="n">
         <v>57</v>
       </c>
       <c r="F18" t="s">
@@ -1129,20 +1111,20 @@
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
+    <row r="19">
+      <c r="A19" s="1" t="n">
         <v>45793</v>
       </c>
-      <c r="B19">
+      <c r="B19" t="n">
         <v>30</v>
       </c>
-      <c r="C19">
+      <c r="C19" t="n">
         <v>15</v>
       </c>
       <c r="D19" t="s">
         <v>26</v>
       </c>
-      <c r="E19">
+      <c r="E19" t="n">
         <v>78</v>
       </c>
       <c r="F19" t="s">
@@ -1158,20 +1140,20 @@
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
+    <row r="20">
+      <c r="A20" s="1" t="n">
         <v>45794</v>
       </c>
-      <c r="B20">
+      <c r="B20" t="n">
         <v>38</v>
       </c>
-      <c r="C20">
+      <c r="C20" t="n">
         <v>45</v>
       </c>
       <c r="D20" t="s">
         <v>14</v>
       </c>
-      <c r="E20">
+      <c r="E20" t="n">
         <v>99</v>
       </c>
       <c r="F20" t="s">
@@ -1187,20 +1169,20 @@
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
+    <row r="21">
+      <c r="A21" s="1" t="n">
         <v>45795</v>
       </c>
-      <c r="B21">
+      <c r="B21" t="n">
         <v>39</v>
       </c>
-      <c r="C21">
+      <c r="C21" t="n">
         <v>54</v>
       </c>
       <c r="D21" t="s">
         <v>14</v>
       </c>
-      <c r="E21">
+      <c r="E21" t="n">
         <v>46</v>
       </c>
       <c r="F21" t="s">
@@ -1216,20 +1198,20 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
+    <row r="22">
+      <c r="A22" s="1" t="n">
         <v>45796</v>
       </c>
-      <c r="B22">
+      <c r="B22" t="n">
         <v>17</v>
       </c>
-      <c r="C22">
+      <c r="C22" t="n">
         <v>22</v>
       </c>
       <c r="D22" t="s">
         <v>9</v>
       </c>
-      <c r="E22">
+      <c r="E22" t="n">
         <v>64</v>
       </c>
       <c r="F22" t="s">
@@ -1245,20 +1227,20 @@
         <v>59</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
+    <row r="23">
+      <c r="A23" s="1" t="n">
         <v>45797</v>
       </c>
-      <c r="B23">
+      <c r="B23" t="n">
         <v>31</v>
       </c>
-      <c r="C23">
+      <c r="C23" t="n">
         <v>12</v>
       </c>
       <c r="D23" t="s">
         <v>26</v>
       </c>
-      <c r="E23">
+      <c r="E23" t="n">
         <v>38</v>
       </c>
       <c r="F23" t="s">
@@ -1274,20 +1256,20 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
+    <row r="24">
+      <c r="A24" s="1" t="n">
         <v>45798</v>
       </c>
-      <c r="B24">
+      <c r="B24" t="n">
         <v>40</v>
       </c>
-      <c r="C24">
+      <c r="C24" t="n">
         <v>17</v>
       </c>
       <c r="D24" t="s">
         <v>12</v>
       </c>
-      <c r="E24">
+      <c r="E24" t="n">
         <v>63</v>
       </c>
       <c r="F24" t="s">
@@ -1303,20 +1285,20 @@
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
+    <row r="25">
+      <c r="A25" s="1" t="n">
         <v>45799</v>
       </c>
-      <c r="B25">
+      <c r="B25" t="n">
         <v>32</v>
       </c>
-      <c r="C25">
+      <c r="C25" t="n">
         <v>46</v>
       </c>
       <c r="D25" t="s">
         <v>14</v>
       </c>
-      <c r="E25">
+      <c r="E25" t="n">
         <v>35</v>
       </c>
       <c r="F25" t="s">
@@ -1332,20 +1314,20 @@
         <v>62</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
+    <row r="26">
+      <c r="A26" s="1" t="n">
         <v>45800</v>
       </c>
-      <c r="B26">
+      <c r="B26" t="n">
         <v>60</v>
       </c>
-      <c r="C26">
+      <c r="C26" t="n">
         <v>19</v>
       </c>
       <c r="D26" t="s">
         <v>26</v>
       </c>
-      <c r="E26">
+      <c r="E26" t="n">
         <v>42</v>
       </c>
       <c r="F26" t="s">
@@ -1361,20 +1343,20 @@
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
+    <row r="27">
+      <c r="A27" s="1" t="n">
         <v>45801</v>
       </c>
-      <c r="B27">
+      <c r="B27" t="n">
         <v>43</v>
       </c>
-      <c r="C27">
+      <c r="C27" t="n">
         <v>27</v>
       </c>
       <c r="D27" t="s">
         <v>26</v>
       </c>
-      <c r="E27">
+      <c r="E27" t="n">
         <v>70</v>
       </c>
       <c r="F27" t="s">
@@ -1390,20 +1372,20 @@
         <v>66</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
+    <row r="28">
+      <c r="A28" s="1" t="n">
         <v>45802</v>
       </c>
-      <c r="B28">
+      <c r="B28" t="n">
         <v>40</v>
       </c>
-      <c r="C28">
+      <c r="C28" t="n">
         <v>15</v>
       </c>
       <c r="D28" t="s">
         <v>26</v>
       </c>
-      <c r="E28">
+      <c r="E28" t="n">
         <v>46</v>
       </c>
       <c r="F28" t="s">
@@ -1419,20 +1401,20 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
+    <row r="29">
+      <c r="A29" s="1" t="n">
         <v>45803</v>
       </c>
-      <c r="B29">
+      <c r="B29" t="n">
         <v>19</v>
       </c>
-      <c r="C29">
+      <c r="C29" t="n">
         <v>12</v>
       </c>
       <c r="D29" t="s">
         <v>14</v>
       </c>
-      <c r="E29">
+      <c r="E29" t="n">
         <v>87</v>
       </c>
       <c r="F29" t="s">
@@ -1448,20 +1430,20 @@
         <v>69</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
+    <row r="30">
+      <c r="A30" s="1" t="n">
         <v>45804</v>
       </c>
-      <c r="B30">
+      <c r="B30" t="n">
         <v>31</v>
       </c>
-      <c r="C30">
+      <c r="C30" t="n">
         <v>13</v>
       </c>
       <c r="D30" t="s">
         <v>26</v>
       </c>
-      <c r="E30">
+      <c r="E30" t="n">
         <v>46</v>
       </c>
       <c r="F30" t="s">
@@ -1477,20 +1459,20 @@
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
+    <row r="31">
+      <c r="A31" s="1" t="n">
         <v>45805</v>
       </c>
-      <c r="B31">
+      <c r="B31" t="n">
         <v>31</v>
       </c>
-      <c r="C31">
+      <c r="C31" t="n">
         <v>28</v>
       </c>
       <c r="D31" t="s">
         <v>14</v>
       </c>
-      <c r="E31">
+      <c r="E31" t="n">
         <v>45</v>
       </c>
       <c r="F31" t="s">
@@ -1506,20 +1488,20 @@
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
+    <row r="32">
+      <c r="A32" s="1" t="n">
         <v>45806</v>
       </c>
-      <c r="B32">
+      <c r="B32" t="n">
         <v>57</v>
       </c>
-      <c r="C32">
+      <c r="C32" t="n">
         <v>10</v>
       </c>
       <c r="D32" t="s">
         <v>12</v>
       </c>
-      <c r="E32">
+      <c r="E32" t="n">
         <v>67</v>
       </c>
       <c r="F32" t="s">
@@ -1535,20 +1517,20 @@
         <v>72</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
+    <row r="33">
+      <c r="A33" s="1" t="n">
         <v>45807</v>
       </c>
-      <c r="B33">
+      <c r="B33" t="n">
         <v>52</v>
       </c>
-      <c r="C33">
+      <c r="C33" t="n">
         <v>11</v>
       </c>
       <c r="D33" t="s">
         <v>9</v>
       </c>
-      <c r="E33">
+      <c r="E33" t="n">
         <v>40</v>
       </c>
       <c r="F33" t="s">
@@ -1564,20 +1546,20 @@
         <v>27</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
+    <row r="34">
+      <c r="A34" s="1" t="n">
         <v>45808</v>
       </c>
-      <c r="B34">
+      <c r="B34" t="n">
         <v>117</v>
       </c>
-      <c r="C34">
+      <c r="C34" t="n">
         <v>20</v>
       </c>
       <c r="D34" t="s">
         <v>14</v>
       </c>
-      <c r="E34">
+      <c r="E34" t="n">
         <v>115</v>
       </c>
       <c r="F34" t="s">
@@ -1593,20 +1575,20 @@
         <v>75</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
+    <row r="35">
+      <c r="A35" s="1" t="n">
         <v>45809</v>
       </c>
-      <c r="B35">
+      <c r="B35" t="n">
         <v>47</v>
       </c>
-      <c r="C35">
+      <c r="C35" t="n">
         <v>110</v>
       </c>
       <c r="D35" t="s">
         <v>26</v>
       </c>
-      <c r="E35">
+      <c r="E35" t="n">
         <v>60</v>
       </c>
       <c r="F35" t="s">
@@ -1622,20 +1604,20 @@
         <v>67</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
+    <row r="36">
+      <c r="A36" s="1" t="n">
         <v>45810</v>
       </c>
-      <c r="B36">
+      <c r="B36" t="n">
         <v>7</v>
       </c>
-      <c r="C36">
+      <c r="C36" t="n">
         <v>33</v>
       </c>
       <c r="D36" t="s">
         <v>36</v>
       </c>
-      <c r="E36">
+      <c r="E36" t="n">
         <v>31</v>
       </c>
       <c r="F36" t="s">
@@ -1651,20 +1633,20 @@
         <v>69</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="1">
+    <row r="37">
+      <c r="A37" s="1" t="n">
         <v>45811</v>
       </c>
-      <c r="B37">
+      <c r="B37" t="n">
         <v>25</v>
       </c>
-      <c r="C37">
+      <c r="C37" t="n">
         <v>10</v>
       </c>
       <c r="D37" t="s">
         <v>36</v>
       </c>
-      <c r="E37">
+      <c r="E37" t="n">
         <v>53</v>
       </c>
       <c r="F37" t="s">
@@ -1680,20 +1662,20 @@
         <v>23</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="1">
+    <row r="38">
+      <c r="A38" s="1" t="n">
         <v>45812</v>
       </c>
-      <c r="B38">
+      <c r="B38" t="n">
         <v>29</v>
       </c>
-      <c r="C38">
+      <c r="C38" t="n">
         <v>10</v>
       </c>
       <c r="D38" t="s">
         <v>26</v>
       </c>
-      <c r="E38">
+      <c r="E38" t="n">
         <v>43</v>
       </c>
       <c r="F38" t="s">
@@ -1709,20 +1691,20 @@
         <v>23</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="1">
+    <row r="39">
+      <c r="A39" s="1" t="n">
         <v>45813</v>
       </c>
-      <c r="B39">
+      <c r="B39" t="n">
         <v>57</v>
       </c>
-      <c r="C39">
+      <c r="C39" t="n">
         <v>8</v>
       </c>
       <c r="D39" t="s">
         <v>14</v>
       </c>
-      <c r="E39">
+      <c r="E39" t="n">
         <v>91</v>
       </c>
       <c r="F39" t="s">
@@ -1738,9 +1720,21 @@
         <v>78</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="1">
+    <row r="40">
+      <c r="A40" s="1" t="n">
         <v>45814</v>
+      </c>
+      <c r="B40" t="n">
+        <v>25</v>
+      </c>
+      <c r="C40" t="n">
+        <v>20</v>
+      </c>
+      <c r="D40" t="s">
+        <v>14</v>
+      </c>
+      <c r="E40" t="n">
+        <v>88</v>
       </c>
       <c r="F40" t="s">
         <v>34</v>
@@ -1755,11 +1749,38 @@
         <v>79</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="1"/>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>45814</v>
+      </c>
+      <c r="B41" t="n">
+        <v>25</v>
+      </c>
+      <c r="C41"/>
+      <c r="D41"/>
+      <c r="E41"/>
+      <c r="F41"/>
+      <c r="G41"/>
+      <c r="H41"/>
+      <c r="I41"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>45814</v>
+      </c>
+      <c r="B42" t="n">
+        <v>25</v>
+      </c>
+      <c r="C42"/>
+      <c r="D42"/>
+      <c r="E42"/>
+      <c r="F42"/>
+      <c r="G42"/>
+      <c r="H42"/>
+      <c r="I42"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
--- a/projects/LinkedIn_games/LinkedIn_games_data.xlsx
+++ b/projects/LinkedIn_games/LinkedIn_games_data.xlsx
@@ -1,265 +1,272 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <workbookPr date1904="false"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hullacuk-my.sharepoint.com/personal/c_ho-2023_hull_ac_uk/Documents/Github/Quarto-Website/PersonalWebsite/projects/LinkedIn_games/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_DEEE713E0089629F144733FA5F7C99CA5C8606D7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D5CDACCB-595A-4613-8410-8CF8A8C222D1}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="2850" yWindow="1095" windowWidth="18000" windowHeight="10440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
-  <si>
-    <t xml:space="preserve">date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CW_T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CW_Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CW_P</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CW_C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PM_T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PM_Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PM_P</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PM_C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">66</t>
-  </si>
-  <si>
-    <t xml:space="preserve">68</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">87</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">77</t>
-  </si>
-  <si>
-    <t xml:space="preserve">239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">81</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">69</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">74</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">260</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60</t>
-  </si>
-  <si>
-    <t xml:space="preserve">159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">85</t>
-  </si>
-  <si>
-    <t xml:space="preserve">99</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">73</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">70</t>
-  </si>
-  <si>
-    <t xml:space="preserve">137</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="80">
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>CW_T</t>
+  </si>
+  <si>
+    <t>CW_Z</t>
+  </si>
+  <si>
+    <t>CW_P</t>
+  </si>
+  <si>
+    <t>CW_C</t>
+  </si>
+  <si>
+    <t>PM_T</t>
+  </si>
+  <si>
+    <t>PM_Z</t>
+  </si>
+  <si>
+    <t>PM_P</t>
+  </si>
+  <si>
+    <t>PM_C</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>239</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>112</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>260</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>159</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>144</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>219</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>135</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>167</t>
+  </si>
+  <si>
+    <t>168</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>137</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -295,12 +302,21 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -582,14 +598,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41:I42"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -618,20 +636,20 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
         <v>45776</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>32</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>15</v>
       </c>
       <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>105</v>
       </c>
       <c r="F2" t="s">
@@ -647,20 +665,20 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>45777</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>51</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>14</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>47</v>
       </c>
       <c r="F3" t="s">
@@ -676,20 +694,20 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>45778</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>61</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>23</v>
       </c>
       <c r="D4" t="s">
         <v>14</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>37</v>
       </c>
       <c r="F4" t="s">
@@ -705,20 +723,20 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>45779</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>131</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>46</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>52</v>
       </c>
       <c r="F5" t="s">
@@ -734,20 +752,20 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>45780</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>154</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>40</v>
       </c>
       <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>82</v>
       </c>
       <c r="F6" t="s">
@@ -763,20 +781,20 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>45781</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>65</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>85</v>
       </c>
       <c r="D7" t="s">
         <v>12</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
         <v>108</v>
       </c>
       <c r="F7" t="s">
@@ -792,20 +810,20 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
         <v>45782</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>22</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>8</v>
       </c>
       <c r="D8" t="s">
         <v>14</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
         <v>41</v>
       </c>
       <c r="F8" t="s">
@@ -821,20 +839,20 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
         <v>45783</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>30</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>7</v>
       </c>
       <c r="D9" t="s">
         <v>14</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
         <v>39</v>
       </c>
       <c r="F9" t="s">
@@ -850,20 +868,20 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
         <v>45784</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>37</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>8</v>
       </c>
       <c r="D10" t="s">
         <v>12</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
         <v>89</v>
       </c>
       <c r="F10" t="s">
@@ -879,20 +897,20 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
         <v>45785</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>40</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>29</v>
       </c>
       <c r="D11" t="s">
         <v>12</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
         <v>69</v>
       </c>
       <c r="F11" t="s">
@@ -908,20 +926,20 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
         <v>45786</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>55</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>14</v>
       </c>
       <c r="D12" t="s">
         <v>26</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12">
         <v>36</v>
       </c>
       <c r="F12" t="s">
@@ -937,20 +955,20 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
         <v>45787</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>123</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13">
         <v>56</v>
       </c>
       <c r="D13" t="s">
         <v>36</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13">
         <v>69</v>
       </c>
       <c r="F13" t="s">
@@ -966,20 +984,20 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
         <v>45788</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>36</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14">
         <v>49</v>
       </c>
       <c r="D14" t="s">
         <v>26</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14">
         <v>63</v>
       </c>
       <c r="F14" t="s">
@@ -995,20 +1013,20 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
         <v>45789</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>28</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15">
         <v>11</v>
       </c>
       <c r="D15" t="s">
         <v>14</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15">
         <v>71</v>
       </c>
       <c r="F15" t="s">
@@ -1024,20 +1042,20 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
         <v>45790</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>31</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16">
         <v>9</v>
       </c>
       <c r="D16" t="s">
         <v>12</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16">
         <v>49</v>
       </c>
       <c r="F16" t="s">
@@ -1053,20 +1071,20 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
         <v>45791</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>64</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17">
         <v>8</v>
       </c>
       <c r="D17" t="s">
         <v>12</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E17">
         <v>42</v>
       </c>
       <c r="F17" t="s">
@@ -1082,20 +1100,20 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
         <v>45792</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>90</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18">
         <v>246</v>
       </c>
       <c r="D18" t="s">
         <v>26</v>
       </c>
-      <c r="E18" t="n">
+      <c r="E18">
         <v>57</v>
       </c>
       <c r="F18" t="s">
@@ -1111,20 +1129,20 @@
         <v>46</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
         <v>45793</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>30</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19">
         <v>15</v>
       </c>
       <c r="D19" t="s">
         <v>26</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E19">
         <v>78</v>
       </c>
       <c r="F19" t="s">
@@ -1140,20 +1158,20 @@
         <v>54</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
         <v>45794</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>38</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20">
         <v>45</v>
       </c>
       <c r="D20" t="s">
         <v>14</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E20">
         <v>99</v>
       </c>
       <c r="F20" t="s">
@@ -1169,20 +1187,20 @@
         <v>41</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
         <v>45795</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>39</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21">
         <v>54</v>
       </c>
       <c r="D21" t="s">
         <v>14</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E21">
         <v>46</v>
       </c>
       <c r="F21" t="s">
@@ -1198,20 +1216,20 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
         <v>45796</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>17</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C22">
         <v>22</v>
       </c>
       <c r="D22" t="s">
         <v>9</v>
       </c>
-      <c r="E22" t="n">
+      <c r="E22">
         <v>64</v>
       </c>
       <c r="F22" t="s">
@@ -1227,20 +1245,20 @@
         <v>59</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
         <v>45797</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23">
         <v>31</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23">
         <v>12</v>
       </c>
       <c r="D23" t="s">
         <v>26</v>
       </c>
-      <c r="E23" t="n">
+      <c r="E23">
         <v>38</v>
       </c>
       <c r="F23" t="s">
@@ -1256,20 +1274,20 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
         <v>45798</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24">
         <v>40</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C24">
         <v>17</v>
       </c>
       <c r="D24" t="s">
         <v>12</v>
       </c>
-      <c r="E24" t="n">
+      <c r="E24">
         <v>63</v>
       </c>
       <c r="F24" t="s">
@@ -1285,20 +1303,20 @@
         <v>33</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
         <v>45799</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25">
         <v>32</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C25">
         <v>46</v>
       </c>
       <c r="D25" t="s">
         <v>14</v>
       </c>
-      <c r="E25" t="n">
+      <c r="E25">
         <v>35</v>
       </c>
       <c r="F25" t="s">
@@ -1314,20 +1332,20 @@
         <v>62</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
         <v>45800</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26">
         <v>60</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C26">
         <v>19</v>
       </c>
       <c r="D26" t="s">
         <v>26</v>
       </c>
-      <c r="E26" t="n">
+      <c r="E26">
         <v>42</v>
       </c>
       <c r="F26" t="s">
@@ -1343,20 +1361,20 @@
         <v>29</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
         <v>45801</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B27">
         <v>43</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C27">
         <v>27</v>
       </c>
       <c r="D27" t="s">
         <v>26</v>
       </c>
-      <c r="E27" t="n">
+      <c r="E27">
         <v>70</v>
       </c>
       <c r="F27" t="s">
@@ -1372,20 +1390,20 @@
         <v>66</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
         <v>45802</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B28">
         <v>40</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C28">
         <v>15</v>
       </c>
       <c r="D28" t="s">
         <v>26</v>
       </c>
-      <c r="E28" t="n">
+      <c r="E28">
         <v>46</v>
       </c>
       <c r="F28" t="s">
@@ -1401,20 +1419,20 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
         <v>45803</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B29">
         <v>19</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C29">
         <v>12</v>
       </c>
       <c r="D29" t="s">
         <v>14</v>
       </c>
-      <c r="E29" t="n">
+      <c r="E29">
         <v>87</v>
       </c>
       <c r="F29" t="s">
@@ -1430,20 +1448,20 @@
         <v>69</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
         <v>45804</v>
       </c>
-      <c r="B30" t="n">
+      <c r="B30">
         <v>31</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C30">
         <v>13</v>
       </c>
       <c r="D30" t="s">
         <v>26</v>
       </c>
-      <c r="E30" t="n">
+      <c r="E30">
         <v>46</v>
       </c>
       <c r="F30" t="s">
@@ -1459,20 +1477,20 @@
         <v>54</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
         <v>45805</v>
       </c>
-      <c r="B31" t="n">
+      <c r="B31">
         <v>31</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C31">
         <v>28</v>
       </c>
       <c r="D31" t="s">
         <v>14</v>
       </c>
-      <c r="E31" t="n">
+      <c r="E31">
         <v>45</v>
       </c>
       <c r="F31" t="s">
@@ -1488,20 +1506,20 @@
         <v>40</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
         <v>45806</v>
       </c>
-      <c r="B32" t="n">
+      <c r="B32">
         <v>57</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C32">
         <v>10</v>
       </c>
       <c r="D32" t="s">
         <v>12</v>
       </c>
-      <c r="E32" t="n">
+      <c r="E32">
         <v>67</v>
       </c>
       <c r="F32" t="s">
@@ -1517,20 +1535,20 @@
         <v>72</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
         <v>45807</v>
       </c>
-      <c r="B33" t="n">
+      <c r="B33">
         <v>52</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C33">
         <v>11</v>
       </c>
       <c r="D33" t="s">
         <v>9</v>
       </c>
-      <c r="E33" t="n">
+      <c r="E33">
         <v>40</v>
       </c>
       <c r="F33" t="s">
@@ -1546,20 +1564,20 @@
         <v>27</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
         <v>45808</v>
       </c>
-      <c r="B34" t="n">
+      <c r="B34">
         <v>117</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C34">
         <v>20</v>
       </c>
       <c r="D34" t="s">
         <v>14</v>
       </c>
-      <c r="E34" t="n">
+      <c r="E34">
         <v>115</v>
       </c>
       <c r="F34" t="s">
@@ -1575,20 +1593,20 @@
         <v>75</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
         <v>45809</v>
       </c>
-      <c r="B35" t="n">
+      <c r="B35">
         <v>47</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C35">
         <v>110</v>
       </c>
       <c r="D35" t="s">
         <v>26</v>
       </c>
-      <c r="E35" t="n">
+      <c r="E35">
         <v>60</v>
       </c>
       <c r="F35" t="s">
@@ -1604,20 +1622,20 @@
         <v>67</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
         <v>45810</v>
       </c>
-      <c r="B36" t="n">
+      <c r="B36">
         <v>7</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C36">
         <v>33</v>
       </c>
       <c r="D36" t="s">
         <v>36</v>
       </c>
-      <c r="E36" t="n">
+      <c r="E36">
         <v>31</v>
       </c>
       <c r="F36" t="s">
@@ -1633,20 +1651,20 @@
         <v>69</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
         <v>45811</v>
       </c>
-      <c r="B37" t="n">
+      <c r="B37">
         <v>25</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C37">
         <v>10</v>
       </c>
       <c r="D37" t="s">
         <v>36</v>
       </c>
-      <c r="E37" t="n">
+      <c r="E37">
         <v>53</v>
       </c>
       <c r="F37" t="s">
@@ -1662,20 +1680,20 @@
         <v>23</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
         <v>45812</v>
       </c>
-      <c r="B38" t="n">
+      <c r="B38">
         <v>29</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C38">
         <v>10</v>
       </c>
       <c r="D38" t="s">
         <v>26</v>
       </c>
-      <c r="E38" t="n">
+      <c r="E38">
         <v>43</v>
       </c>
       <c r="F38" t="s">
@@ -1691,20 +1709,20 @@
         <v>23</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
         <v>45813</v>
       </c>
-      <c r="B39" t="n">
+      <c r="B39">
         <v>57</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C39">
         <v>8</v>
       </c>
       <c r="D39" t="s">
         <v>14</v>
       </c>
-      <c r="E39" t="n">
+      <c r="E39">
         <v>91</v>
       </c>
       <c r="F39" t="s">
@@ -1720,20 +1738,20 @@
         <v>78</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
         <v>45814</v>
       </c>
-      <c r="B40" t="n">
+      <c r="B40">
         <v>25</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C40">
         <v>20</v>
       </c>
       <c r="D40" t="s">
         <v>14</v>
       </c>
-      <c r="E40" t="n">
+      <c r="E40">
         <v>88</v>
       </c>
       <c r="F40" t="s">
@@ -1749,38 +1767,14 @@
         <v>79</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>45814</v>
-      </c>
-      <c r="B41" t="n">
-        <v>25</v>
-      </c>
-      <c r="C41"/>
-      <c r="D41"/>
-      <c r="E41"/>
-      <c r="F41"/>
-      <c r="G41"/>
-      <c r="H41"/>
-      <c r="I41"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>45814</v>
-      </c>
-      <c r="B42" t="n">
-        <v>25</v>
-      </c>
-      <c r="C42"/>
-      <c r="D42"/>
-      <c r="E42"/>
-      <c r="F42"/>
-      <c r="G42"/>
-      <c r="H42"/>
-      <c r="I42"/>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="1"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/projects/LinkedIn_games/LinkedIn_games_data.xlsx
+++ b/projects/LinkedIn_games/LinkedIn_games_data.xlsx
@@ -1,272 +1,265 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hullacuk-my.sharepoint.com/personal/c_ho-2023_hull_ac_uk/Documents/Github/Quarto-Website/PersonalWebsite/projects/LinkedIn_games/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_DEEE713E0089629F144733FA5F7C99CA5C8606D7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D5CDACCB-595A-4613-8410-8CF8A8C222D1}"/>
+  <workbookPr date1904="false"/>
   <bookViews>
-    <workbookView xWindow="2850" yWindow="1095" windowWidth="18000" windowHeight="10440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="80">
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>CW_T</t>
-  </si>
-  <si>
-    <t>CW_Z</t>
-  </si>
-  <si>
-    <t>CW_P</t>
-  </si>
-  <si>
-    <t>CW_C</t>
-  </si>
-  <si>
-    <t>PM_T</t>
-  </si>
-  <si>
-    <t>PM_Z</t>
-  </si>
-  <si>
-    <t>PM_P</t>
-  </si>
-  <si>
-    <t>PM_C</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>61</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>56</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>66</t>
-  </si>
-  <si>
-    <t>68</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>87</t>
-  </si>
-  <si>
-    <t>47</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>77</t>
-  </si>
-  <si>
-    <t>239</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>112</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>64</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>54</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>81</t>
-  </si>
-  <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t>69</t>
-  </si>
-  <si>
-    <t>65</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>74</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>63</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>260</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>159</t>
-  </si>
-  <si>
-    <t>58</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>55</t>
-  </si>
-  <si>
-    <t>144</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>219</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>85</t>
-  </si>
-  <si>
-    <t>99</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t>135</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>167</t>
-  </si>
-  <si>
-    <t>168</t>
-  </si>
-  <si>
-    <t>73</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>70</t>
-  </si>
-  <si>
-    <t>137</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
+  <si>
+    <t xml:space="preserve">date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CW_T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CW_Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CW_P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CW_C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PM_T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PM_Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PM_P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PM_C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">87</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">77</t>
+  </si>
+  <si>
+    <t xml:space="preserve">239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">81</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">69</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">74</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">260</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">85</t>
+  </si>
+  <si>
+    <t xml:space="preserve">99</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">73</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">70</t>
+  </si>
+  <si>
+    <t xml:space="preserve">137</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -302,21 +295,12 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -598,16 +582,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I42"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41:I42"/>
-    </sheetView>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -636,20 +618,20 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>45776</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="n">
         <v>32</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="n">
         <v>15</v>
       </c>
       <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="n">
         <v>105</v>
       </c>
       <c r="F2" t="s">
@@ -665,20 +647,20 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>45777</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="n">
         <v>51</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="n">
         <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>14</v>
       </c>
-      <c r="E3">
+      <c r="E3" t="n">
         <v>47</v>
       </c>
       <c r="F3" t="s">
@@ -694,20 +676,20 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+    <row r="4">
+      <c r="A4" s="1" t="n">
         <v>45778</v>
       </c>
-      <c r="B4">
+      <c r="B4" t="n">
         <v>61</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="n">
         <v>23</v>
       </c>
       <c r="D4" t="s">
         <v>14</v>
       </c>
-      <c r="E4">
+      <c r="E4" t="n">
         <v>37</v>
       </c>
       <c r="F4" t="s">
@@ -723,20 +705,20 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+    <row r="5">
+      <c r="A5" s="1" t="n">
         <v>45779</v>
       </c>
-      <c r="B5">
+      <c r="B5" t="n">
         <v>131</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="n">
         <v>46</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
       </c>
-      <c r="E5">
+      <c r="E5" t="n">
         <v>52</v>
       </c>
       <c r="F5" t="s">
@@ -752,20 +734,20 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+    <row r="6">
+      <c r="A6" s="1" t="n">
         <v>45780</v>
       </c>
-      <c r="B6">
+      <c r="B6" t="n">
         <v>154</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="n">
         <v>40</v>
       </c>
       <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="E6">
+      <c r="E6" t="n">
         <v>82</v>
       </c>
       <c r="F6" t="s">
@@ -781,20 +763,20 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+    <row r="7">
+      <c r="A7" s="1" t="n">
         <v>45781</v>
       </c>
-      <c r="B7">
+      <c r="B7" t="n">
         <v>65</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="n">
         <v>85</v>
       </c>
       <c r="D7" t="s">
         <v>12</v>
       </c>
-      <c r="E7">
+      <c r="E7" t="n">
         <v>108</v>
       </c>
       <c r="F7" t="s">
@@ -810,20 +792,20 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+    <row r="8">
+      <c r="A8" s="1" t="n">
         <v>45782</v>
       </c>
-      <c r="B8">
+      <c r="B8" t="n">
         <v>22</v>
       </c>
-      <c r="C8">
+      <c r="C8" t="n">
         <v>8</v>
       </c>
       <c r="D8" t="s">
         <v>14</v>
       </c>
-      <c r="E8">
+      <c r="E8" t="n">
         <v>41</v>
       </c>
       <c r="F8" t="s">
@@ -839,20 +821,20 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+    <row r="9">
+      <c r="A9" s="1" t="n">
         <v>45783</v>
       </c>
-      <c r="B9">
+      <c r="B9" t="n">
         <v>30</v>
       </c>
-      <c r="C9">
+      <c r="C9" t="n">
         <v>7</v>
       </c>
       <c r="D9" t="s">
         <v>14</v>
       </c>
-      <c r="E9">
+      <c r="E9" t="n">
         <v>39</v>
       </c>
       <c r="F9" t="s">
@@ -868,20 +850,20 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+    <row r="10">
+      <c r="A10" s="1" t="n">
         <v>45784</v>
       </c>
-      <c r="B10">
+      <c r="B10" t="n">
         <v>37</v>
       </c>
-      <c r="C10">
+      <c r="C10" t="n">
         <v>8</v>
       </c>
       <c r="D10" t="s">
         <v>12</v>
       </c>
-      <c r="E10">
+      <c r="E10" t="n">
         <v>89</v>
       </c>
       <c r="F10" t="s">
@@ -897,20 +879,20 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+    <row r="11">
+      <c r="A11" s="1" t="n">
         <v>45785</v>
       </c>
-      <c r="B11">
+      <c r="B11" t="n">
         <v>40</v>
       </c>
-      <c r="C11">
+      <c r="C11" t="n">
         <v>29</v>
       </c>
       <c r="D11" t="s">
         <v>12</v>
       </c>
-      <c r="E11">
+      <c r="E11" t="n">
         <v>69</v>
       </c>
       <c r="F11" t="s">
@@ -926,20 +908,20 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
+    <row r="12">
+      <c r="A12" s="1" t="n">
         <v>45786</v>
       </c>
-      <c r="B12">
+      <c r="B12" t="n">
         <v>55</v>
       </c>
-      <c r="C12">
+      <c r="C12" t="n">
         <v>14</v>
       </c>
       <c r="D12" t="s">
         <v>26</v>
       </c>
-      <c r="E12">
+      <c r="E12" t="n">
         <v>36</v>
       </c>
       <c r="F12" t="s">
@@ -955,20 +937,20 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+    <row r="13">
+      <c r="A13" s="1" t="n">
         <v>45787</v>
       </c>
-      <c r="B13">
+      <c r="B13" t="n">
         <v>123</v>
       </c>
-      <c r="C13">
+      <c r="C13" t="n">
         <v>56</v>
       </c>
       <c r="D13" t="s">
         <v>36</v>
       </c>
-      <c r="E13">
+      <c r="E13" t="n">
         <v>69</v>
       </c>
       <c r="F13" t="s">
@@ -984,20 +966,20 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
+    <row r="14">
+      <c r="A14" s="1" t="n">
         <v>45788</v>
       </c>
-      <c r="B14">
+      <c r="B14" t="n">
         <v>36</v>
       </c>
-      <c r="C14">
+      <c r="C14" t="n">
         <v>49</v>
       </c>
       <c r="D14" t="s">
         <v>26</v>
       </c>
-      <c r="E14">
+      <c r="E14" t="n">
         <v>63</v>
       </c>
       <c r="F14" t="s">
@@ -1013,20 +995,20 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
+    <row r="15">
+      <c r="A15" s="1" t="n">
         <v>45789</v>
       </c>
-      <c r="B15">
+      <c r="B15" t="n">
         <v>28</v>
       </c>
-      <c r="C15">
+      <c r="C15" t="n">
         <v>11</v>
       </c>
       <c r="D15" t="s">
         <v>14</v>
       </c>
-      <c r="E15">
+      <c r="E15" t="n">
         <v>71</v>
       </c>
       <c r="F15" t="s">
@@ -1042,20 +1024,20 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
+    <row r="16">
+      <c r="A16" s="1" t="n">
         <v>45790</v>
       </c>
-      <c r="B16">
+      <c r="B16" t="n">
         <v>31</v>
       </c>
-      <c r="C16">
+      <c r="C16" t="n">
         <v>9</v>
       </c>
       <c r="D16" t="s">
         <v>12</v>
       </c>
-      <c r="E16">
+      <c r="E16" t="n">
         <v>49</v>
       </c>
       <c r="F16" t="s">
@@ -1071,20 +1053,20 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
+    <row r="17">
+      <c r="A17" s="1" t="n">
         <v>45791</v>
       </c>
-      <c r="B17">
+      <c r="B17" t="n">
         <v>64</v>
       </c>
-      <c r="C17">
+      <c r="C17" t="n">
         <v>8</v>
       </c>
       <c r="D17" t="s">
         <v>12</v>
       </c>
-      <c r="E17">
+      <c r="E17" t="n">
         <v>42</v>
       </c>
       <c r="F17" t="s">
@@ -1100,20 +1082,20 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
+    <row r="18">
+      <c r="A18" s="1" t="n">
         <v>45792</v>
       </c>
-      <c r="B18">
+      <c r="B18" t="n">
         <v>90</v>
       </c>
-      <c r="C18">
+      <c r="C18" t="n">
         <v>246</v>
       </c>
       <c r="D18" t="s">
         <v>26</v>
       </c>
-      <c r="E18">
+      <c r="E18" t="n">
         <v>57</v>
       </c>
       <c r="F18" t="s">
@@ -1129,20 +1111,20 @@
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
+    <row r="19">
+      <c r="A19" s="1" t="n">
         <v>45793</v>
       </c>
-      <c r="B19">
+      <c r="B19" t="n">
         <v>30</v>
       </c>
-      <c r="C19">
+      <c r="C19" t="n">
         <v>15</v>
       </c>
       <c r="D19" t="s">
         <v>26</v>
       </c>
-      <c r="E19">
+      <c r="E19" t="n">
         <v>78</v>
       </c>
       <c r="F19" t="s">
@@ -1158,20 +1140,20 @@
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
+    <row r="20">
+      <c r="A20" s="1" t="n">
         <v>45794</v>
       </c>
-      <c r="B20">
+      <c r="B20" t="n">
         <v>38</v>
       </c>
-      <c r="C20">
+      <c r="C20" t="n">
         <v>45</v>
       </c>
       <c r="D20" t="s">
         <v>14</v>
       </c>
-      <c r="E20">
+      <c r="E20" t="n">
         <v>99</v>
       </c>
       <c r="F20" t="s">
@@ -1187,20 +1169,20 @@
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
+    <row r="21">
+      <c r="A21" s="1" t="n">
         <v>45795</v>
       </c>
-      <c r="B21">
+      <c r="B21" t="n">
         <v>39</v>
       </c>
-      <c r="C21">
+      <c r="C21" t="n">
         <v>54</v>
       </c>
       <c r="D21" t="s">
         <v>14</v>
       </c>
-      <c r="E21">
+      <c r="E21" t="n">
         <v>46</v>
       </c>
       <c r="F21" t="s">
@@ -1216,20 +1198,20 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
+    <row r="22">
+      <c r="A22" s="1" t="n">
         <v>45796</v>
       </c>
-      <c r="B22">
+      <c r="B22" t="n">
         <v>17</v>
       </c>
-      <c r="C22">
+      <c r="C22" t="n">
         <v>22</v>
       </c>
       <c r="D22" t="s">
         <v>9</v>
       </c>
-      <c r="E22">
+      <c r="E22" t="n">
         <v>64</v>
       </c>
       <c r="F22" t="s">
@@ -1245,20 +1227,20 @@
         <v>59</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
+    <row r="23">
+      <c r="A23" s="1" t="n">
         <v>45797</v>
       </c>
-      <c r="B23">
+      <c r="B23" t="n">
         <v>31</v>
       </c>
-      <c r="C23">
+      <c r="C23" t="n">
         <v>12</v>
       </c>
       <c r="D23" t="s">
         <v>26</v>
       </c>
-      <c r="E23">
+      <c r="E23" t="n">
         <v>38</v>
       </c>
       <c r="F23" t="s">
@@ -1274,20 +1256,20 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
+    <row r="24">
+      <c r="A24" s="1" t="n">
         <v>45798</v>
       </c>
-      <c r="B24">
+      <c r="B24" t="n">
         <v>40</v>
       </c>
-      <c r="C24">
+      <c r="C24" t="n">
         <v>17</v>
       </c>
       <c r="D24" t="s">
         <v>12</v>
       </c>
-      <c r="E24">
+      <c r="E24" t="n">
         <v>63</v>
       </c>
       <c r="F24" t="s">
@@ -1303,20 +1285,20 @@
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
+    <row r="25">
+      <c r="A25" s="1" t="n">
         <v>45799</v>
       </c>
-      <c r="B25">
+      <c r="B25" t="n">
         <v>32</v>
       </c>
-      <c r="C25">
+      <c r="C25" t="n">
         <v>46</v>
       </c>
       <c r="D25" t="s">
         <v>14</v>
       </c>
-      <c r="E25">
+      <c r="E25" t="n">
         <v>35</v>
       </c>
       <c r="F25" t="s">
@@ -1332,20 +1314,20 @@
         <v>62</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
+    <row r="26">
+      <c r="A26" s="1" t="n">
         <v>45800</v>
       </c>
-      <c r="B26">
+      <c r="B26" t="n">
         <v>60</v>
       </c>
-      <c r="C26">
+      <c r="C26" t="n">
         <v>19</v>
       </c>
       <c r="D26" t="s">
         <v>26</v>
       </c>
-      <c r="E26">
+      <c r="E26" t="n">
         <v>42</v>
       </c>
       <c r="F26" t="s">
@@ -1361,20 +1343,20 @@
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
+    <row r="27">
+      <c r="A27" s="1" t="n">
         <v>45801</v>
       </c>
-      <c r="B27">
+      <c r="B27" t="n">
         <v>43</v>
       </c>
-      <c r="C27">
+      <c r="C27" t="n">
         <v>27</v>
       </c>
       <c r="D27" t="s">
         <v>26</v>
       </c>
-      <c r="E27">
+      <c r="E27" t="n">
         <v>70</v>
       </c>
       <c r="F27" t="s">
@@ -1390,20 +1372,20 @@
         <v>66</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
+    <row r="28">
+      <c r="A28" s="1" t="n">
         <v>45802</v>
       </c>
-      <c r="B28">
+      <c r="B28" t="n">
         <v>40</v>
       </c>
-      <c r="C28">
+      <c r="C28" t="n">
         <v>15</v>
       </c>
       <c r="D28" t="s">
         <v>26</v>
       </c>
-      <c r="E28">
+      <c r="E28" t="n">
         <v>46</v>
       </c>
       <c r="F28" t="s">
@@ -1419,20 +1401,20 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
+    <row r="29">
+      <c r="A29" s="1" t="n">
         <v>45803</v>
       </c>
-      <c r="B29">
+      <c r="B29" t="n">
         <v>19</v>
       </c>
-      <c r="C29">
+      <c r="C29" t="n">
         <v>12</v>
       </c>
       <c r="D29" t="s">
         <v>14</v>
       </c>
-      <c r="E29">
+      <c r="E29" t="n">
         <v>87</v>
       </c>
       <c r="F29" t="s">
@@ -1448,20 +1430,20 @@
         <v>69</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
+    <row r="30">
+      <c r="A30" s="1" t="n">
         <v>45804</v>
       </c>
-      <c r="B30">
+      <c r="B30" t="n">
         <v>31</v>
       </c>
-      <c r="C30">
+      <c r="C30" t="n">
         <v>13</v>
       </c>
       <c r="D30" t="s">
         <v>26</v>
       </c>
-      <c r="E30">
+      <c r="E30" t="n">
         <v>46</v>
       </c>
       <c r="F30" t="s">
@@ -1477,20 +1459,20 @@
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
+    <row r="31">
+      <c r="A31" s="1" t="n">
         <v>45805</v>
       </c>
-      <c r="B31">
+      <c r="B31" t="n">
         <v>31</v>
       </c>
-      <c r="C31">
+      <c r="C31" t="n">
         <v>28</v>
       </c>
       <c r="D31" t="s">
         <v>14</v>
       </c>
-      <c r="E31">
+      <c r="E31" t="n">
         <v>45</v>
       </c>
       <c r="F31" t="s">
@@ -1506,20 +1488,20 @@
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
+    <row r="32">
+      <c r="A32" s="1" t="n">
         <v>45806</v>
       </c>
-      <c r="B32">
+      <c r="B32" t="n">
         <v>57</v>
       </c>
-      <c r="C32">
+      <c r="C32" t="n">
         <v>10</v>
       </c>
       <c r="D32" t="s">
         <v>12</v>
       </c>
-      <c r="E32">
+      <c r="E32" t="n">
         <v>67</v>
       </c>
       <c r="F32" t="s">
@@ -1535,20 +1517,20 @@
         <v>72</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
+    <row r="33">
+      <c r="A33" s="1" t="n">
         <v>45807</v>
       </c>
-      <c r="B33">
+      <c r="B33" t="n">
         <v>52</v>
       </c>
-      <c r="C33">
+      <c r="C33" t="n">
         <v>11</v>
       </c>
       <c r="D33" t="s">
         <v>9</v>
       </c>
-      <c r="E33">
+      <c r="E33" t="n">
         <v>40</v>
       </c>
       <c r="F33" t="s">
@@ -1564,20 +1546,20 @@
         <v>27</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
+    <row r="34">
+      <c r="A34" s="1" t="n">
         <v>45808</v>
       </c>
-      <c r="B34">
+      <c r="B34" t="n">
         <v>117</v>
       </c>
-      <c r="C34">
+      <c r="C34" t="n">
         <v>20</v>
       </c>
       <c r="D34" t="s">
         <v>14</v>
       </c>
-      <c r="E34">
+      <c r="E34" t="n">
         <v>115</v>
       </c>
       <c r="F34" t="s">
@@ -1593,20 +1575,20 @@
         <v>75</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
+    <row r="35">
+      <c r="A35" s="1" t="n">
         <v>45809</v>
       </c>
-      <c r="B35">
+      <c r="B35" t="n">
         <v>47</v>
       </c>
-      <c r="C35">
+      <c r="C35" t="n">
         <v>110</v>
       </c>
       <c r="D35" t="s">
         <v>26</v>
       </c>
-      <c r="E35">
+      <c r="E35" t="n">
         <v>60</v>
       </c>
       <c r="F35" t="s">
@@ -1622,20 +1604,20 @@
         <v>67</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
+    <row r="36">
+      <c r="A36" s="1" t="n">
         <v>45810</v>
       </c>
-      <c r="B36">
+      <c r="B36" t="n">
         <v>7</v>
       </c>
-      <c r="C36">
+      <c r="C36" t="n">
         <v>33</v>
       </c>
       <c r="D36" t="s">
         <v>36</v>
       </c>
-      <c r="E36">
+      <c r="E36" t="n">
         <v>31</v>
       </c>
       <c r="F36" t="s">
@@ -1651,20 +1633,20 @@
         <v>69</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="1">
+    <row r="37">
+      <c r="A37" s="1" t="n">
         <v>45811</v>
       </c>
-      <c r="B37">
+      <c r="B37" t="n">
         <v>25</v>
       </c>
-      <c r="C37">
+      <c r="C37" t="n">
         <v>10</v>
       </c>
       <c r="D37" t="s">
         <v>36</v>
       </c>
-      <c r="E37">
+      <c r="E37" t="n">
         <v>53</v>
       </c>
       <c r="F37" t="s">
@@ -1680,20 +1662,20 @@
         <v>23</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="1">
+    <row r="38">
+      <c r="A38" s="1" t="n">
         <v>45812</v>
       </c>
-      <c r="B38">
+      <c r="B38" t="n">
         <v>29</v>
       </c>
-      <c r="C38">
+      <c r="C38" t="n">
         <v>10</v>
       </c>
       <c r="D38" t="s">
         <v>26</v>
       </c>
-      <c r="E38">
+      <c r="E38" t="n">
         <v>43</v>
       </c>
       <c r="F38" t="s">
@@ -1709,20 +1691,20 @@
         <v>23</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="1">
+    <row r="39">
+      <c r="A39" s="1" t="n">
         <v>45813</v>
       </c>
-      <c r="B39">
+      <c r="B39" t="n">
         <v>57</v>
       </c>
-      <c r="C39">
+      <c r="C39" t="n">
         <v>8</v>
       </c>
       <c r="D39" t="s">
         <v>14</v>
       </c>
-      <c r="E39">
+      <c r="E39" t="n">
         <v>91</v>
       </c>
       <c r="F39" t="s">
@@ -1738,20 +1720,20 @@
         <v>78</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="1">
+    <row r="40">
+      <c r="A40" s="1" t="n">
         <v>45814</v>
       </c>
-      <c r="B40">
+      <c r="B40" t="n">
         <v>25</v>
       </c>
-      <c r="C40">
+      <c r="C40" t="n">
         <v>20</v>
       </c>
       <c r="D40" t="s">
         <v>14</v>
       </c>
-      <c r="E40">
+      <c r="E40" t="n">
         <v>88</v>
       </c>
       <c r="F40" t="s">
@@ -1767,14 +1749,38 @@
         <v>79</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="1"/>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="1"/>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>45814</v>
+      </c>
+      <c r="B41" t="n">
+        <v>25</v>
+      </c>
+      <c r="C41"/>
+      <c r="D41"/>
+      <c r="E41"/>
+      <c r="F41"/>
+      <c r="G41"/>
+      <c r="H41"/>
+      <c r="I41"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>45814</v>
+      </c>
+      <c r="B42" t="n">
+        <v>25</v>
+      </c>
+      <c r="C42"/>
+      <c r="D42"/>
+      <c r="E42"/>
+      <c r="F42"/>
+      <c r="G42"/>
+      <c r="H42"/>
+      <c r="I42"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
--- a/projects/LinkedIn_games/LinkedIn_games_data.xlsx
+++ b/projects/LinkedIn_games/LinkedIn_games_data.xlsx
@@ -1779,6 +1779,21 @@
       <c r="H42"/>
       <c r="I42"/>
     </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>45814</v>
+      </c>
+      <c r="B43" t="n">
+        <v>25</v>
+      </c>
+      <c r="C43"/>
+      <c r="D43"/>
+      <c r="E43"/>
+      <c r="F43"/>
+      <c r="G43"/>
+      <c r="H43"/>
+      <c r="I43"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/projects/LinkedIn_games/LinkedIn_games_data.xlsx
+++ b/projects/LinkedIn_games/LinkedIn_games_data.xlsx
@@ -1,265 +1,272 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <workbookPr date1904="false"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hullacuk-my.sharepoint.com/personal/c_ho-2023_hull_ac_uk/Documents/Github/Quarto-Website/PersonalWebsite/projects/LinkedIn_games/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_DEEE713E1DA1E7DC5626244E5F3B96A2A4C53AE8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{31A7C2C1-272A-451A-8A19-F88CBEEE6725}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="2850" yWindow="1095" windowWidth="18000" windowHeight="10440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
-  <si>
-    <t xml:space="preserve">date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CW_T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CW_Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CW_P</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CW_C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PM_T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PM_Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PM_P</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PM_C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">66</t>
-  </si>
-  <si>
-    <t xml:space="preserve">68</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">87</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">77</t>
-  </si>
-  <si>
-    <t xml:space="preserve">239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">81</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">69</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">74</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">260</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60</t>
-  </si>
-  <si>
-    <t xml:space="preserve">159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">85</t>
-  </si>
-  <si>
-    <t xml:space="preserve">99</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">73</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">70</t>
-  </si>
-  <si>
-    <t xml:space="preserve">137</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="80">
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>CW_T</t>
+  </si>
+  <si>
+    <t>CW_Z</t>
+  </si>
+  <si>
+    <t>CW_P</t>
+  </si>
+  <si>
+    <t>CW_C</t>
+  </si>
+  <si>
+    <t>PM_T</t>
+  </si>
+  <si>
+    <t>PM_Z</t>
+  </si>
+  <si>
+    <t>PM_P</t>
+  </si>
+  <si>
+    <t>PM_C</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>239</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>112</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>260</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>159</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>144</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>219</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>135</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>167</t>
+  </si>
+  <si>
+    <t>168</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>137</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -295,12 +302,21 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -582,14 +598,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -618,20 +636,20 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
         <v>45776</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>32</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>15</v>
       </c>
       <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>105</v>
       </c>
       <c r="F2" t="s">
@@ -647,20 +665,20 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>45777</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>51</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>14</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>47</v>
       </c>
       <c r="F3" t="s">
@@ -676,20 +694,20 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>45778</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>61</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>23</v>
       </c>
       <c r="D4" t="s">
         <v>14</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>37</v>
       </c>
       <c r="F4" t="s">
@@ -705,20 +723,20 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>45779</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>131</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>46</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>52</v>
       </c>
       <c r="F5" t="s">
@@ -734,20 +752,20 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>45780</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>154</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>40</v>
       </c>
       <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>82</v>
       </c>
       <c r="F6" t="s">
@@ -763,20 +781,20 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>45781</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>65</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>85</v>
       </c>
       <c r="D7" t="s">
         <v>12</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
         <v>108</v>
       </c>
       <c r="F7" t="s">
@@ -792,20 +810,20 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
         <v>45782</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>22</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>8</v>
       </c>
       <c r="D8" t="s">
         <v>14</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
         <v>41</v>
       </c>
       <c r="F8" t="s">
@@ -821,20 +839,20 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
         <v>45783</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>30</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>7</v>
       </c>
       <c r="D9" t="s">
         <v>14</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
         <v>39</v>
       </c>
       <c r="F9" t="s">
@@ -850,20 +868,20 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
         <v>45784</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>37</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>8</v>
       </c>
       <c r="D10" t="s">
         <v>12</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
         <v>89</v>
       </c>
       <c r="F10" t="s">
@@ -879,20 +897,20 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
         <v>45785</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>40</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>29</v>
       </c>
       <c r="D11" t="s">
         <v>12</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
         <v>69</v>
       </c>
       <c r="F11" t="s">
@@ -908,20 +926,20 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
         <v>45786</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>55</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>14</v>
       </c>
       <c r="D12" t="s">
         <v>26</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12">
         <v>36</v>
       </c>
       <c r="F12" t="s">
@@ -937,20 +955,20 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
         <v>45787</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>123</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13">
         <v>56</v>
       </c>
       <c r="D13" t="s">
         <v>36</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13">
         <v>69</v>
       </c>
       <c r="F13" t="s">
@@ -966,20 +984,20 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
         <v>45788</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>36</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14">
         <v>49</v>
       </c>
       <c r="D14" t="s">
         <v>26</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14">
         <v>63</v>
       </c>
       <c r="F14" t="s">
@@ -995,20 +1013,20 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
         <v>45789</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>28</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15">
         <v>11</v>
       </c>
       <c r="D15" t="s">
         <v>14</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15">
         <v>71</v>
       </c>
       <c r="F15" t="s">
@@ -1024,20 +1042,20 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
         <v>45790</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>31</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16">
         <v>9</v>
       </c>
       <c r="D16" t="s">
         <v>12</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16">
         <v>49</v>
       </c>
       <c r="F16" t="s">
@@ -1053,20 +1071,20 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
         <v>45791</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>64</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17">
         <v>8</v>
       </c>
       <c r="D17" t="s">
         <v>12</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E17">
         <v>42</v>
       </c>
       <c r="F17" t="s">
@@ -1082,20 +1100,20 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
         <v>45792</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>90</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18">
         <v>246</v>
       </c>
       <c r="D18" t="s">
         <v>26</v>
       </c>
-      <c r="E18" t="n">
+      <c r="E18">
         <v>57</v>
       </c>
       <c r="F18" t="s">
@@ -1111,20 +1129,20 @@
         <v>46</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
         <v>45793</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>30</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19">
         <v>15</v>
       </c>
       <c r="D19" t="s">
         <v>26</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E19">
         <v>78</v>
       </c>
       <c r="F19" t="s">
@@ -1140,20 +1158,20 @@
         <v>54</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
         <v>45794</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>38</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20">
         <v>45</v>
       </c>
       <c r="D20" t="s">
         <v>14</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E20">
         <v>99</v>
       </c>
       <c r="F20" t="s">
@@ -1169,20 +1187,20 @@
         <v>41</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
         <v>45795</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>39</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21">
         <v>54</v>
       </c>
       <c r="D21" t="s">
         <v>14</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E21">
         <v>46</v>
       </c>
       <c r="F21" t="s">
@@ -1198,20 +1216,20 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
         <v>45796</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>17</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C22">
         <v>22</v>
       </c>
       <c r="D22" t="s">
         <v>9</v>
       </c>
-      <c r="E22" t="n">
+      <c r="E22">
         <v>64</v>
       </c>
       <c r="F22" t="s">
@@ -1227,20 +1245,20 @@
         <v>59</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
         <v>45797</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23">
         <v>31</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23">
         <v>12</v>
       </c>
       <c r="D23" t="s">
         <v>26</v>
       </c>
-      <c r="E23" t="n">
+      <c r="E23">
         <v>38</v>
       </c>
       <c r="F23" t="s">
@@ -1256,20 +1274,20 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
         <v>45798</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24">
         <v>40</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C24">
         <v>17</v>
       </c>
       <c r="D24" t="s">
         <v>12</v>
       </c>
-      <c r="E24" t="n">
+      <c r="E24">
         <v>63</v>
       </c>
       <c r="F24" t="s">
@@ -1285,20 +1303,20 @@
         <v>33</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
         <v>45799</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25">
         <v>32</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C25">
         <v>46</v>
       </c>
       <c r="D25" t="s">
         <v>14</v>
       </c>
-      <c r="E25" t="n">
+      <c r="E25">
         <v>35</v>
       </c>
       <c r="F25" t="s">
@@ -1314,20 +1332,20 @@
         <v>62</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
         <v>45800</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26">
         <v>60</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C26">
         <v>19</v>
       </c>
       <c r="D26" t="s">
         <v>26</v>
       </c>
-      <c r="E26" t="n">
+      <c r="E26">
         <v>42</v>
       </c>
       <c r="F26" t="s">
@@ -1343,20 +1361,20 @@
         <v>29</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
         <v>45801</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B27">
         <v>43</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C27">
         <v>27</v>
       </c>
       <c r="D27" t="s">
         <v>26</v>
       </c>
-      <c r="E27" t="n">
+      <c r="E27">
         <v>70</v>
       </c>
       <c r="F27" t="s">
@@ -1372,20 +1390,20 @@
         <v>66</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
         <v>45802</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B28">
         <v>40</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C28">
         <v>15</v>
       </c>
       <c r="D28" t="s">
         <v>26</v>
       </c>
-      <c r="E28" t="n">
+      <c r="E28">
         <v>46</v>
       </c>
       <c r="F28" t="s">
@@ -1401,20 +1419,20 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
         <v>45803</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B29">
         <v>19</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C29">
         <v>12</v>
       </c>
       <c r="D29" t="s">
         <v>14</v>
       </c>
-      <c r="E29" t="n">
+      <c r="E29">
         <v>87</v>
       </c>
       <c r="F29" t="s">
@@ -1430,20 +1448,20 @@
         <v>69</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
         <v>45804</v>
       </c>
-      <c r="B30" t="n">
+      <c r="B30">
         <v>31</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C30">
         <v>13</v>
       </c>
       <c r="D30" t="s">
         <v>26</v>
       </c>
-      <c r="E30" t="n">
+      <c r="E30">
         <v>46</v>
       </c>
       <c r="F30" t="s">
@@ -1459,20 +1477,20 @@
         <v>54</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
         <v>45805</v>
       </c>
-      <c r="B31" t="n">
+      <c r="B31">
         <v>31</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C31">
         <v>28</v>
       </c>
       <c r="D31" t="s">
         <v>14</v>
       </c>
-      <c r="E31" t="n">
+      <c r="E31">
         <v>45</v>
       </c>
       <c r="F31" t="s">
@@ -1488,20 +1506,20 @@
         <v>40</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
         <v>45806</v>
       </c>
-      <c r="B32" t="n">
+      <c r="B32">
         <v>57</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C32">
         <v>10</v>
       </c>
       <c r="D32" t="s">
         <v>12</v>
       </c>
-      <c r="E32" t="n">
+      <c r="E32">
         <v>67</v>
       </c>
       <c r="F32" t="s">
@@ -1517,20 +1535,20 @@
         <v>72</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
         <v>45807</v>
       </c>
-      <c r="B33" t="n">
+      <c r="B33">
         <v>52</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C33">
         <v>11</v>
       </c>
       <c r="D33" t="s">
         <v>9</v>
       </c>
-      <c r="E33" t="n">
+      <c r="E33">
         <v>40</v>
       </c>
       <c r="F33" t="s">
@@ -1546,20 +1564,20 @@
         <v>27</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
         <v>45808</v>
       </c>
-      <c r="B34" t="n">
+      <c r="B34">
         <v>117</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C34">
         <v>20</v>
       </c>
       <c r="D34" t="s">
         <v>14</v>
       </c>
-      <c r="E34" t="n">
+      <c r="E34">
         <v>115</v>
       </c>
       <c r="F34" t="s">
@@ -1575,20 +1593,20 @@
         <v>75</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
         <v>45809</v>
       </c>
-      <c r="B35" t="n">
+      <c r="B35">
         <v>47</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C35">
         <v>110</v>
       </c>
       <c r="D35" t="s">
         <v>26</v>
       </c>
-      <c r="E35" t="n">
+      <c r="E35">
         <v>60</v>
       </c>
       <c r="F35" t="s">
@@ -1604,20 +1622,20 @@
         <v>67</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
         <v>45810</v>
       </c>
-      <c r="B36" t="n">
+      <c r="B36">
         <v>7</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C36">
         <v>33</v>
       </c>
       <c r="D36" t="s">
         <v>36</v>
       </c>
-      <c r="E36" t="n">
+      <c r="E36">
         <v>31</v>
       </c>
       <c r="F36" t="s">
@@ -1633,20 +1651,20 @@
         <v>69</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
         <v>45811</v>
       </c>
-      <c r="B37" t="n">
+      <c r="B37">
         <v>25</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C37">
         <v>10</v>
       </c>
       <c r="D37" t="s">
         <v>36</v>
       </c>
-      <c r="E37" t="n">
+      <c r="E37">
         <v>53</v>
       </c>
       <c r="F37" t="s">
@@ -1662,20 +1680,20 @@
         <v>23</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
         <v>45812</v>
       </c>
-      <c r="B38" t="n">
+      <c r="B38">
         <v>29</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C38">
         <v>10</v>
       </c>
       <c r="D38" t="s">
         <v>26</v>
       </c>
-      <c r="E38" t="n">
+      <c r="E38">
         <v>43</v>
       </c>
       <c r="F38" t="s">
@@ -1691,20 +1709,20 @@
         <v>23</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
         <v>45813</v>
       </c>
-      <c r="B39" t="n">
+      <c r="B39">
         <v>57</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C39">
         <v>8</v>
       </c>
       <c r="D39" t="s">
         <v>14</v>
       </c>
-      <c r="E39" t="n">
+      <c r="E39">
         <v>91</v>
       </c>
       <c r="F39" t="s">
@@ -1720,20 +1738,20 @@
         <v>78</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
         <v>45814</v>
       </c>
-      <c r="B40" t="n">
+      <c r="B40">
         <v>25</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C40">
         <v>20</v>
       </c>
       <c r="D40" t="s">
         <v>14</v>
       </c>
-      <c r="E40" t="n">
+      <c r="E40">
         <v>88</v>
       </c>
       <c r="F40" t="s">
@@ -1749,53 +1767,17 @@
         <v>79</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>45814</v>
-      </c>
-      <c r="B41" t="n">
-        <v>25</v>
-      </c>
-      <c r="C41"/>
-      <c r="D41"/>
-      <c r="E41"/>
-      <c r="F41"/>
-      <c r="G41"/>
-      <c r="H41"/>
-      <c r="I41"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>45814</v>
-      </c>
-      <c r="B42" t="n">
-        <v>25</v>
-      </c>
-      <c r="C42"/>
-      <c r="D42"/>
-      <c r="E42"/>
-      <c r="F42"/>
-      <c r="G42"/>
-      <c r="H42"/>
-      <c r="I42"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>45814</v>
-      </c>
-      <c r="B43" t="n">
-        <v>25</v>
-      </c>
-      <c r="C43"/>
-      <c r="D43"/>
-      <c r="E43"/>
-      <c r="F43"/>
-      <c r="G43"/>
-      <c r="H43"/>
-      <c r="I43"/>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="1"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="1"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/projects/LinkedIn_games/LinkedIn_games_data.xlsx
+++ b/projects/LinkedIn_games/LinkedIn_games_data.xlsx
@@ -1,272 +1,265 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hullacuk-my.sharepoint.com/personal/c_ho-2023_hull_ac_uk/Documents/Github/Quarto-Website/PersonalWebsite/projects/LinkedIn_games/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_DEEE713E1DA1E7DC5626244E5F3B96A2A4C53AE8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{31A7C2C1-272A-451A-8A19-F88CBEEE6725}"/>
+  <workbookPr date1904="false"/>
   <bookViews>
-    <workbookView xWindow="2850" yWindow="1095" windowWidth="18000" windowHeight="10440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="80">
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>CW_T</t>
-  </si>
-  <si>
-    <t>CW_Z</t>
-  </si>
-  <si>
-    <t>CW_P</t>
-  </si>
-  <si>
-    <t>CW_C</t>
-  </si>
-  <si>
-    <t>PM_T</t>
-  </si>
-  <si>
-    <t>PM_Z</t>
-  </si>
-  <si>
-    <t>PM_P</t>
-  </si>
-  <si>
-    <t>PM_C</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>61</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>56</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>66</t>
-  </si>
-  <si>
-    <t>68</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>87</t>
-  </si>
-  <si>
-    <t>47</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>77</t>
-  </si>
-  <si>
-    <t>239</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>112</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>64</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>54</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>81</t>
-  </si>
-  <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t>69</t>
-  </si>
-  <si>
-    <t>65</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>74</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>63</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>260</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>159</t>
-  </si>
-  <si>
-    <t>58</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>55</t>
-  </si>
-  <si>
-    <t>144</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>219</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>85</t>
-  </si>
-  <si>
-    <t>99</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t>135</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>167</t>
-  </si>
-  <si>
-    <t>168</t>
-  </si>
-  <si>
-    <t>73</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>70</t>
-  </si>
-  <si>
-    <t>137</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
+  <si>
+    <t xml:space="preserve">date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CW_T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CW_Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CW_P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CW_C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PM_T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PM_Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PM_P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PM_C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">87</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">77</t>
+  </si>
+  <si>
+    <t xml:space="preserve">239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">81</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">69</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">74</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">260</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">85</t>
+  </si>
+  <si>
+    <t xml:space="preserve">99</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">73</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">70</t>
+  </si>
+  <si>
+    <t xml:space="preserve">137</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -302,21 +295,12 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -598,16 +582,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I43"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
-    </sheetView>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -636,20 +618,20 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>45776</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="n">
         <v>32</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="n">
         <v>15</v>
       </c>
       <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="n">
         <v>105</v>
       </c>
       <c r="F2" t="s">
@@ -665,20 +647,20 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>45777</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="n">
         <v>51</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="n">
         <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>14</v>
       </c>
-      <c r="E3">
+      <c r="E3" t="n">
         <v>47</v>
       </c>
       <c r="F3" t="s">
@@ -694,20 +676,20 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+    <row r="4">
+      <c r="A4" s="1" t="n">
         <v>45778</v>
       </c>
-      <c r="B4">
+      <c r="B4" t="n">
         <v>61</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="n">
         <v>23</v>
       </c>
       <c r="D4" t="s">
         <v>14</v>
       </c>
-      <c r="E4">
+      <c r="E4" t="n">
         <v>37</v>
       </c>
       <c r="F4" t="s">
@@ -723,20 +705,20 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+    <row r="5">
+      <c r="A5" s="1" t="n">
         <v>45779</v>
       </c>
-      <c r="B5">
+      <c r="B5" t="n">
         <v>131</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="n">
         <v>46</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
       </c>
-      <c r="E5">
+      <c r="E5" t="n">
         <v>52</v>
       </c>
       <c r="F5" t="s">
@@ -752,20 +734,20 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+    <row r="6">
+      <c r="A6" s="1" t="n">
         <v>45780</v>
       </c>
-      <c r="B6">
+      <c r="B6" t="n">
         <v>154</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="n">
         <v>40</v>
       </c>
       <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="E6">
+      <c r="E6" t="n">
         <v>82</v>
       </c>
       <c r="F6" t="s">
@@ -781,20 +763,20 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+    <row r="7">
+      <c r="A7" s="1" t="n">
         <v>45781</v>
       </c>
-      <c r="B7">
+      <c r="B7" t="n">
         <v>65</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="n">
         <v>85</v>
       </c>
       <c r="D7" t="s">
         <v>12</v>
       </c>
-      <c r="E7">
+      <c r="E7" t="n">
         <v>108</v>
       </c>
       <c r="F7" t="s">
@@ -810,20 +792,20 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+    <row r="8">
+      <c r="A8" s="1" t="n">
         <v>45782</v>
       </c>
-      <c r="B8">
+      <c r="B8" t="n">
         <v>22</v>
       </c>
-      <c r="C8">
+      <c r="C8" t="n">
         <v>8</v>
       </c>
       <c r="D8" t="s">
         <v>14</v>
       </c>
-      <c r="E8">
+      <c r="E8" t="n">
         <v>41</v>
       </c>
       <c r="F8" t="s">
@@ -839,20 +821,20 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+    <row r="9">
+      <c r="A9" s="1" t="n">
         <v>45783</v>
       </c>
-      <c r="B9">
+      <c r="B9" t="n">
         <v>30</v>
       </c>
-      <c r="C9">
+      <c r="C9" t="n">
         <v>7</v>
       </c>
       <c r="D9" t="s">
         <v>14</v>
       </c>
-      <c r="E9">
+      <c r="E9" t="n">
         <v>39</v>
       </c>
       <c r="F9" t="s">
@@ -868,20 +850,20 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+    <row r="10">
+      <c r="A10" s="1" t="n">
         <v>45784</v>
       </c>
-      <c r="B10">
+      <c r="B10" t="n">
         <v>37</v>
       </c>
-      <c r="C10">
+      <c r="C10" t="n">
         <v>8</v>
       </c>
       <c r="D10" t="s">
         <v>12</v>
       </c>
-      <c r="E10">
+      <c r="E10" t="n">
         <v>89</v>
       </c>
       <c r="F10" t="s">
@@ -897,20 +879,20 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+    <row r="11">
+      <c r="A11" s="1" t="n">
         <v>45785</v>
       </c>
-      <c r="B11">
+      <c r="B11" t="n">
         <v>40</v>
       </c>
-      <c r="C11">
+      <c r="C11" t="n">
         <v>29</v>
       </c>
       <c r="D11" t="s">
         <v>12</v>
       </c>
-      <c r="E11">
+      <c r="E11" t="n">
         <v>69</v>
       </c>
       <c r="F11" t="s">
@@ -926,20 +908,20 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
+    <row r="12">
+      <c r="A12" s="1" t="n">
         <v>45786</v>
       </c>
-      <c r="B12">
+      <c r="B12" t="n">
         <v>55</v>
       </c>
-      <c r="C12">
+      <c r="C12" t="n">
         <v>14</v>
       </c>
       <c r="D12" t="s">
         <v>26</v>
       </c>
-      <c r="E12">
+      <c r="E12" t="n">
         <v>36</v>
       </c>
       <c r="F12" t="s">
@@ -955,20 +937,20 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+    <row r="13">
+      <c r="A13" s="1" t="n">
         <v>45787</v>
       </c>
-      <c r="B13">
+      <c r="B13" t="n">
         <v>123</v>
       </c>
-      <c r="C13">
+      <c r="C13" t="n">
         <v>56</v>
       </c>
       <c r="D13" t="s">
         <v>36</v>
       </c>
-      <c r="E13">
+      <c r="E13" t="n">
         <v>69</v>
       </c>
       <c r="F13" t="s">
@@ -984,20 +966,20 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
+    <row r="14">
+      <c r="A14" s="1" t="n">
         <v>45788</v>
       </c>
-      <c r="B14">
+      <c r="B14" t="n">
         <v>36</v>
       </c>
-      <c r="C14">
+      <c r="C14" t="n">
         <v>49</v>
       </c>
       <c r="D14" t="s">
         <v>26</v>
       </c>
-      <c r="E14">
+      <c r="E14" t="n">
         <v>63</v>
       </c>
       <c r="F14" t="s">
@@ -1013,20 +995,20 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
+    <row r="15">
+      <c r="A15" s="1" t="n">
         <v>45789</v>
       </c>
-      <c r="B15">
+      <c r="B15" t="n">
         <v>28</v>
       </c>
-      <c r="C15">
+      <c r="C15" t="n">
         <v>11</v>
       </c>
       <c r="D15" t="s">
         <v>14</v>
       </c>
-      <c r="E15">
+      <c r="E15" t="n">
         <v>71</v>
       </c>
       <c r="F15" t="s">
@@ -1042,20 +1024,20 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
+    <row r="16">
+      <c r="A16" s="1" t="n">
         <v>45790</v>
       </c>
-      <c r="B16">
+      <c r="B16" t="n">
         <v>31</v>
       </c>
-      <c r="C16">
+      <c r="C16" t="n">
         <v>9</v>
       </c>
       <c r="D16" t="s">
         <v>12</v>
       </c>
-      <c r="E16">
+      <c r="E16" t="n">
         <v>49</v>
       </c>
       <c r="F16" t="s">
@@ -1071,20 +1053,20 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
+    <row r="17">
+      <c r="A17" s="1" t="n">
         <v>45791</v>
       </c>
-      <c r="B17">
+      <c r="B17" t="n">
         <v>64</v>
       </c>
-      <c r="C17">
+      <c r="C17" t="n">
         <v>8</v>
       </c>
       <c r="D17" t="s">
         <v>12</v>
       </c>
-      <c r="E17">
+      <c r="E17" t="n">
         <v>42</v>
       </c>
       <c r="F17" t="s">
@@ -1100,20 +1082,20 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
+    <row r="18">
+      <c r="A18" s="1" t="n">
         <v>45792</v>
       </c>
-      <c r="B18">
+      <c r="B18" t="n">
         <v>90</v>
       </c>
-      <c r="C18">
+      <c r="C18" t="n">
         <v>246</v>
       </c>
       <c r="D18" t="s">
         <v>26</v>
       </c>
-      <c r="E18">
+      <c r="E18" t="n">
         <v>57</v>
       </c>
       <c r="F18" t="s">
@@ -1129,20 +1111,20 @@
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
+    <row r="19">
+      <c r="A19" s="1" t="n">
         <v>45793</v>
       </c>
-      <c r="B19">
+      <c r="B19" t="n">
         <v>30</v>
       </c>
-      <c r="C19">
+      <c r="C19" t="n">
         <v>15</v>
       </c>
       <c r="D19" t="s">
         <v>26</v>
       </c>
-      <c r="E19">
+      <c r="E19" t="n">
         <v>78</v>
       </c>
       <c r="F19" t="s">
@@ -1158,20 +1140,20 @@
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
+    <row r="20">
+      <c r="A20" s="1" t="n">
         <v>45794</v>
       </c>
-      <c r="B20">
+      <c r="B20" t="n">
         <v>38</v>
       </c>
-      <c r="C20">
+      <c r="C20" t="n">
         <v>45</v>
       </c>
       <c r="D20" t="s">
         <v>14</v>
       </c>
-      <c r="E20">
+      <c r="E20" t="n">
         <v>99</v>
       </c>
       <c r="F20" t="s">
@@ -1187,20 +1169,20 @@
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
+    <row r="21">
+      <c r="A21" s="1" t="n">
         <v>45795</v>
       </c>
-      <c r="B21">
+      <c r="B21" t="n">
         <v>39</v>
       </c>
-      <c r="C21">
+      <c r="C21" t="n">
         <v>54</v>
       </c>
       <c r="D21" t="s">
         <v>14</v>
       </c>
-      <c r="E21">
+      <c r="E21" t="n">
         <v>46</v>
       </c>
       <c r="F21" t="s">
@@ -1216,20 +1198,20 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
+    <row r="22">
+      <c r="A22" s="1" t="n">
         <v>45796</v>
       </c>
-      <c r="B22">
+      <c r="B22" t="n">
         <v>17</v>
       </c>
-      <c r="C22">
+      <c r="C22" t="n">
         <v>22</v>
       </c>
       <c r="D22" t="s">
         <v>9</v>
       </c>
-      <c r="E22">
+      <c r="E22" t="n">
         <v>64</v>
       </c>
       <c r="F22" t="s">
@@ -1245,20 +1227,20 @@
         <v>59</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
+    <row r="23">
+      <c r="A23" s="1" t="n">
         <v>45797</v>
       </c>
-      <c r="B23">
+      <c r="B23" t="n">
         <v>31</v>
       </c>
-      <c r="C23">
+      <c r="C23" t="n">
         <v>12</v>
       </c>
       <c r="D23" t="s">
         <v>26</v>
       </c>
-      <c r="E23">
+      <c r="E23" t="n">
         <v>38</v>
       </c>
       <c r="F23" t="s">
@@ -1274,20 +1256,20 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
+    <row r="24">
+      <c r="A24" s="1" t="n">
         <v>45798</v>
       </c>
-      <c r="B24">
+      <c r="B24" t="n">
         <v>40</v>
       </c>
-      <c r="C24">
+      <c r="C24" t="n">
         <v>17</v>
       </c>
       <c r="D24" t="s">
         <v>12</v>
       </c>
-      <c r="E24">
+      <c r="E24" t="n">
         <v>63</v>
       </c>
       <c r="F24" t="s">
@@ -1303,20 +1285,20 @@
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
+    <row r="25">
+      <c r="A25" s="1" t="n">
         <v>45799</v>
       </c>
-      <c r="B25">
+      <c r="B25" t="n">
         <v>32</v>
       </c>
-      <c r="C25">
+      <c r="C25" t="n">
         <v>46</v>
       </c>
       <c r="D25" t="s">
         <v>14</v>
       </c>
-      <c r="E25">
+      <c r="E25" t="n">
         <v>35</v>
       </c>
       <c r="F25" t="s">
@@ -1332,20 +1314,20 @@
         <v>62</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
+    <row r="26">
+      <c r="A26" s="1" t="n">
         <v>45800</v>
       </c>
-      <c r="B26">
+      <c r="B26" t="n">
         <v>60</v>
       </c>
-      <c r="C26">
+      <c r="C26" t="n">
         <v>19</v>
       </c>
       <c r="D26" t="s">
         <v>26</v>
       </c>
-      <c r="E26">
+      <c r="E26" t="n">
         <v>42</v>
       </c>
       <c r="F26" t="s">
@@ -1361,20 +1343,20 @@
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
+    <row r="27">
+      <c r="A27" s="1" t="n">
         <v>45801</v>
       </c>
-      <c r="B27">
+      <c r="B27" t="n">
         <v>43</v>
       </c>
-      <c r="C27">
+      <c r="C27" t="n">
         <v>27</v>
       </c>
       <c r="D27" t="s">
         <v>26</v>
       </c>
-      <c r="E27">
+      <c r="E27" t="n">
         <v>70</v>
       </c>
       <c r="F27" t="s">
@@ -1390,20 +1372,20 @@
         <v>66</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
+    <row r="28">
+      <c r="A28" s="1" t="n">
         <v>45802</v>
       </c>
-      <c r="B28">
+      <c r="B28" t="n">
         <v>40</v>
       </c>
-      <c r="C28">
+      <c r="C28" t="n">
         <v>15</v>
       </c>
       <c r="D28" t="s">
         <v>26</v>
       </c>
-      <c r="E28">
+      <c r="E28" t="n">
         <v>46</v>
       </c>
       <c r="F28" t="s">
@@ -1419,20 +1401,20 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
+    <row r="29">
+      <c r="A29" s="1" t="n">
         <v>45803</v>
       </c>
-      <c r="B29">
+      <c r="B29" t="n">
         <v>19</v>
       </c>
-      <c r="C29">
+      <c r="C29" t="n">
         <v>12</v>
       </c>
       <c r="D29" t="s">
         <v>14</v>
       </c>
-      <c r="E29">
+      <c r="E29" t="n">
         <v>87</v>
       </c>
       <c r="F29" t="s">
@@ -1448,20 +1430,20 @@
         <v>69</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
+    <row r="30">
+      <c r="A30" s="1" t="n">
         <v>45804</v>
       </c>
-      <c r="B30">
+      <c r="B30" t="n">
         <v>31</v>
       </c>
-      <c r="C30">
+      <c r="C30" t="n">
         <v>13</v>
       </c>
       <c r="D30" t="s">
         <v>26</v>
       </c>
-      <c r="E30">
+      <c r="E30" t="n">
         <v>46</v>
       </c>
       <c r="F30" t="s">
@@ -1477,20 +1459,20 @@
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
+    <row r="31">
+      <c r="A31" s="1" t="n">
         <v>45805</v>
       </c>
-      <c r="B31">
+      <c r="B31" t="n">
         <v>31</v>
       </c>
-      <c r="C31">
+      <c r="C31" t="n">
         <v>28</v>
       </c>
       <c r="D31" t="s">
         <v>14</v>
       </c>
-      <c r="E31">
+      <c r="E31" t="n">
         <v>45</v>
       </c>
       <c r="F31" t="s">
@@ -1506,20 +1488,20 @@
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
+    <row r="32">
+      <c r="A32" s="1" t="n">
         <v>45806</v>
       </c>
-      <c r="B32">
+      <c r="B32" t="n">
         <v>57</v>
       </c>
-      <c r="C32">
+      <c r="C32" t="n">
         <v>10</v>
       </c>
       <c r="D32" t="s">
         <v>12</v>
       </c>
-      <c r="E32">
+      <c r="E32" t="n">
         <v>67</v>
       </c>
       <c r="F32" t="s">
@@ -1535,20 +1517,20 @@
         <v>72</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
+    <row r="33">
+      <c r="A33" s="1" t="n">
         <v>45807</v>
       </c>
-      <c r="B33">
+      <c r="B33" t="n">
         <v>52</v>
       </c>
-      <c r="C33">
+      <c r="C33" t="n">
         <v>11</v>
       </c>
       <c r="D33" t="s">
         <v>9</v>
       </c>
-      <c r="E33">
+      <c r="E33" t="n">
         <v>40</v>
       </c>
       <c r="F33" t="s">
@@ -1564,20 +1546,20 @@
         <v>27</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
+    <row r="34">
+      <c r="A34" s="1" t="n">
         <v>45808</v>
       </c>
-      <c r="B34">
+      <c r="B34" t="n">
         <v>117</v>
       </c>
-      <c r="C34">
+      <c r="C34" t="n">
         <v>20</v>
       </c>
       <c r="D34" t="s">
         <v>14</v>
       </c>
-      <c r="E34">
+      <c r="E34" t="n">
         <v>115</v>
       </c>
       <c r="F34" t="s">
@@ -1593,20 +1575,20 @@
         <v>75</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
+    <row r="35">
+      <c r="A35" s="1" t="n">
         <v>45809</v>
       </c>
-      <c r="B35">
+      <c r="B35" t="n">
         <v>47</v>
       </c>
-      <c r="C35">
+      <c r="C35" t="n">
         <v>110</v>
       </c>
       <c r="D35" t="s">
         <v>26</v>
       </c>
-      <c r="E35">
+      <c r="E35" t="n">
         <v>60</v>
       </c>
       <c r="F35" t="s">
@@ -1622,20 +1604,20 @@
         <v>67</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
+    <row r="36">
+      <c r="A36" s="1" t="n">
         <v>45810</v>
       </c>
-      <c r="B36">
+      <c r="B36" t="n">
         <v>7</v>
       </c>
-      <c r="C36">
+      <c r="C36" t="n">
         <v>33</v>
       </c>
       <c r="D36" t="s">
         <v>36</v>
       </c>
-      <c r="E36">
+      <c r="E36" t="n">
         <v>31</v>
       </c>
       <c r="F36" t="s">
@@ -1651,20 +1633,20 @@
         <v>69</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="1">
+    <row r="37">
+      <c r="A37" s="1" t="n">
         <v>45811</v>
       </c>
-      <c r="B37">
+      <c r="B37" t="n">
         <v>25</v>
       </c>
-      <c r="C37">
+      <c r="C37" t="n">
         <v>10</v>
       </c>
       <c r="D37" t="s">
         <v>36</v>
       </c>
-      <c r="E37">
+      <c r="E37" t="n">
         <v>53</v>
       </c>
       <c r="F37" t="s">
@@ -1680,20 +1662,20 @@
         <v>23</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="1">
+    <row r="38">
+      <c r="A38" s="1" t="n">
         <v>45812</v>
       </c>
-      <c r="B38">
+      <c r="B38" t="n">
         <v>29</v>
       </c>
-      <c r="C38">
+      <c r="C38" t="n">
         <v>10</v>
       </c>
       <c r="D38" t="s">
         <v>26</v>
       </c>
-      <c r="E38">
+      <c r="E38" t="n">
         <v>43</v>
       </c>
       <c r="F38" t="s">
@@ -1709,20 +1691,20 @@
         <v>23</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="1">
+    <row r="39">
+      <c r="A39" s="1" t="n">
         <v>45813</v>
       </c>
-      <c r="B39">
+      <c r="B39" t="n">
         <v>57</v>
       </c>
-      <c r="C39">
+      <c r="C39" t="n">
         <v>8</v>
       </c>
       <c r="D39" t="s">
         <v>14</v>
       </c>
-      <c r="E39">
+      <c r="E39" t="n">
         <v>91</v>
       </c>
       <c r="F39" t="s">
@@ -1738,20 +1720,20 @@
         <v>78</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="1">
+    <row r="40">
+      <c r="A40" s="1" t="n">
         <v>45814</v>
       </c>
-      <c r="B40">
+      <c r="B40" t="n">
         <v>25</v>
       </c>
-      <c r="C40">
+      <c r="C40" t="n">
         <v>20</v>
       </c>
       <c r="D40" t="s">
         <v>14</v>
       </c>
-      <c r="E40">
+      <c r="E40" t="n">
         <v>88</v>
       </c>
       <c r="F40" t="s">
@@ -1767,17 +1749,23 @@
         <v>79</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="1"/>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="1"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="1"/>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>45814</v>
+      </c>
+      <c r="B41"/>
+      <c r="C41" t="n">
+        <v>20</v>
+      </c>
+      <c r="D41"/>
+      <c r="E41"/>
+      <c r="F41"/>
+      <c r="G41"/>
+      <c r="H41"/>
+      <c r="I41"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
--- a/projects/LinkedIn_games/LinkedIn_games_data.xlsx
+++ b/projects/LinkedIn_games/LinkedIn_games_data.xlsx
@@ -1,265 +1,272 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <workbookPr date1904="false"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hullacuk-my.sharepoint.com/personal/c_ho-2023_hull_ac_uk/Documents/Github/Quarto-Website/PersonalWebsite/projects/LinkedIn_games/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_DFEE713E1D71EDF10AC4204E5F3B96EEB4031182" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7C713B46-AA46-4D59-90E0-5378E78BD8CE}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="2850" yWindow="1095" windowWidth="18000" windowHeight="10440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
-  <si>
-    <t xml:space="preserve">date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CW_T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CW_Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CW_P</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CW_C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PM_T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PM_Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PM_P</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PM_C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">66</t>
-  </si>
-  <si>
-    <t xml:space="preserve">68</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">87</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">77</t>
-  </si>
-  <si>
-    <t xml:space="preserve">239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">81</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">69</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">74</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">260</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60</t>
-  </si>
-  <si>
-    <t xml:space="preserve">159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">85</t>
-  </si>
-  <si>
-    <t xml:space="preserve">99</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">73</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">70</t>
-  </si>
-  <si>
-    <t xml:space="preserve">137</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="80">
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>CW_T</t>
+  </si>
+  <si>
+    <t>CW_Z</t>
+  </si>
+  <si>
+    <t>CW_P</t>
+  </si>
+  <si>
+    <t>CW_C</t>
+  </si>
+  <si>
+    <t>PM_T</t>
+  </si>
+  <si>
+    <t>PM_Z</t>
+  </si>
+  <si>
+    <t>PM_P</t>
+  </si>
+  <si>
+    <t>PM_C</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>239</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>112</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>260</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>159</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>144</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>219</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>135</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>167</t>
+  </si>
+  <si>
+    <t>168</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>137</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -295,12 +302,21 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -582,14 +598,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41:C41"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -618,20 +636,20 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
         <v>45776</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>32</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>15</v>
       </c>
       <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>105</v>
       </c>
       <c r="F2" t="s">
@@ -647,20 +665,20 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>45777</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>51</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>14</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>47</v>
       </c>
       <c r="F3" t="s">
@@ -676,20 +694,20 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>45778</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>61</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>23</v>
       </c>
       <c r="D4" t="s">
         <v>14</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>37</v>
       </c>
       <c r="F4" t="s">
@@ -705,20 +723,20 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>45779</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>131</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>46</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>52</v>
       </c>
       <c r="F5" t="s">
@@ -734,20 +752,20 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>45780</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>154</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>40</v>
       </c>
       <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>82</v>
       </c>
       <c r="F6" t="s">
@@ -763,20 +781,20 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>45781</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>65</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>85</v>
       </c>
       <c r="D7" t="s">
         <v>12</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
         <v>108</v>
       </c>
       <c r="F7" t="s">
@@ -792,20 +810,20 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
         <v>45782</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>22</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>8</v>
       </c>
       <c r="D8" t="s">
         <v>14</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
         <v>41</v>
       </c>
       <c r="F8" t="s">
@@ -821,20 +839,20 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
         <v>45783</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>30</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>7</v>
       </c>
       <c r="D9" t="s">
         <v>14</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
         <v>39</v>
       </c>
       <c r="F9" t="s">
@@ -850,20 +868,20 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
         <v>45784</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>37</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>8</v>
       </c>
       <c r="D10" t="s">
         <v>12</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
         <v>89</v>
       </c>
       <c r="F10" t="s">
@@ -879,20 +897,20 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
         <v>45785</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>40</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>29</v>
       </c>
       <c r="D11" t="s">
         <v>12</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
         <v>69</v>
       </c>
       <c r="F11" t="s">
@@ -908,20 +926,20 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
         <v>45786</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>55</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>14</v>
       </c>
       <c r="D12" t="s">
         <v>26</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12">
         <v>36</v>
       </c>
       <c r="F12" t="s">
@@ -937,20 +955,20 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
         <v>45787</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>123</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13">
         <v>56</v>
       </c>
       <c r="D13" t="s">
         <v>36</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13">
         <v>69</v>
       </c>
       <c r="F13" t="s">
@@ -966,20 +984,20 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
         <v>45788</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>36</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14">
         <v>49</v>
       </c>
       <c r="D14" t="s">
         <v>26</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14">
         <v>63</v>
       </c>
       <c r="F14" t="s">
@@ -995,20 +1013,20 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
         <v>45789</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>28</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15">
         <v>11</v>
       </c>
       <c r="D15" t="s">
         <v>14</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15">
         <v>71</v>
       </c>
       <c r="F15" t="s">
@@ -1024,20 +1042,20 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
         <v>45790</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>31</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16">
         <v>9</v>
       </c>
       <c r="D16" t="s">
         <v>12</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16">
         <v>49</v>
       </c>
       <c r="F16" t="s">
@@ -1053,20 +1071,20 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
         <v>45791</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>64</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17">
         <v>8</v>
       </c>
       <c r="D17" t="s">
         <v>12</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E17">
         <v>42</v>
       </c>
       <c r="F17" t="s">
@@ -1082,20 +1100,20 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
         <v>45792</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>90</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18">
         <v>246</v>
       </c>
       <c r="D18" t="s">
         <v>26</v>
       </c>
-      <c r="E18" t="n">
+      <c r="E18">
         <v>57</v>
       </c>
       <c r="F18" t="s">
@@ -1111,20 +1129,20 @@
         <v>46</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
         <v>45793</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>30</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19">
         <v>15</v>
       </c>
       <c r="D19" t="s">
         <v>26</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E19">
         <v>78</v>
       </c>
       <c r="F19" t="s">
@@ -1140,20 +1158,20 @@
         <v>54</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
         <v>45794</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>38</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20">
         <v>45</v>
       </c>
       <c r="D20" t="s">
         <v>14</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E20">
         <v>99</v>
       </c>
       <c r="F20" t="s">
@@ -1169,20 +1187,20 @@
         <v>41</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
         <v>45795</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>39</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21">
         <v>54</v>
       </c>
       <c r="D21" t="s">
         <v>14</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E21">
         <v>46</v>
       </c>
       <c r="F21" t="s">
@@ -1198,20 +1216,20 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
         <v>45796</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>17</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C22">
         <v>22</v>
       </c>
       <c r="D22" t="s">
         <v>9</v>
       </c>
-      <c r="E22" t="n">
+      <c r="E22">
         <v>64</v>
       </c>
       <c r="F22" t="s">
@@ -1227,20 +1245,20 @@
         <v>59</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
         <v>45797</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23">
         <v>31</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23">
         <v>12</v>
       </c>
       <c r="D23" t="s">
         <v>26</v>
       </c>
-      <c r="E23" t="n">
+      <c r="E23">
         <v>38</v>
       </c>
       <c r="F23" t="s">
@@ -1256,20 +1274,20 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
         <v>45798</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24">
         <v>40</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C24">
         <v>17</v>
       </c>
       <c r="D24" t="s">
         <v>12</v>
       </c>
-      <c r="E24" t="n">
+      <c r="E24">
         <v>63</v>
       </c>
       <c r="F24" t="s">
@@ -1285,20 +1303,20 @@
         <v>33</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
         <v>45799</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25">
         <v>32</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C25">
         <v>46</v>
       </c>
       <c r="D25" t="s">
         <v>14</v>
       </c>
-      <c r="E25" t="n">
+      <c r="E25">
         <v>35</v>
       </c>
       <c r="F25" t="s">
@@ -1314,20 +1332,20 @@
         <v>62</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
         <v>45800</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26">
         <v>60</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C26">
         <v>19</v>
       </c>
       <c r="D26" t="s">
         <v>26</v>
       </c>
-      <c r="E26" t="n">
+      <c r="E26">
         <v>42</v>
       </c>
       <c r="F26" t="s">
@@ -1343,20 +1361,20 @@
         <v>29</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
         <v>45801</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B27">
         <v>43</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C27">
         <v>27</v>
       </c>
       <c r="D27" t="s">
         <v>26</v>
       </c>
-      <c r="E27" t="n">
+      <c r="E27">
         <v>70</v>
       </c>
       <c r="F27" t="s">
@@ -1372,20 +1390,20 @@
         <v>66</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
         <v>45802</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B28">
         <v>40</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C28">
         <v>15</v>
       </c>
       <c r="D28" t="s">
         <v>26</v>
       </c>
-      <c r="E28" t="n">
+      <c r="E28">
         <v>46</v>
       </c>
       <c r="F28" t="s">
@@ -1401,20 +1419,20 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
         <v>45803</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B29">
         <v>19</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C29">
         <v>12</v>
       </c>
       <c r="D29" t="s">
         <v>14</v>
       </c>
-      <c r="E29" t="n">
+      <c r="E29">
         <v>87</v>
       </c>
       <c r="F29" t="s">
@@ -1430,20 +1448,20 @@
         <v>69</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
         <v>45804</v>
       </c>
-      <c r="B30" t="n">
+      <c r="B30">
         <v>31</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C30">
         <v>13</v>
       </c>
       <c r="D30" t="s">
         <v>26</v>
       </c>
-      <c r="E30" t="n">
+      <c r="E30">
         <v>46</v>
       </c>
       <c r="F30" t="s">
@@ -1459,20 +1477,20 @@
         <v>54</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
         <v>45805</v>
       </c>
-      <c r="B31" t="n">
+      <c r="B31">
         <v>31</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C31">
         <v>28</v>
       </c>
       <c r="D31" t="s">
         <v>14</v>
       </c>
-      <c r="E31" t="n">
+      <c r="E31">
         <v>45</v>
       </c>
       <c r="F31" t="s">
@@ -1488,20 +1506,20 @@
         <v>40</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
         <v>45806</v>
       </c>
-      <c r="B32" t="n">
+      <c r="B32">
         <v>57</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C32">
         <v>10</v>
       </c>
       <c r="D32" t="s">
         <v>12</v>
       </c>
-      <c r="E32" t="n">
+      <c r="E32">
         <v>67</v>
       </c>
       <c r="F32" t="s">
@@ -1517,20 +1535,20 @@
         <v>72</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
         <v>45807</v>
       </c>
-      <c r="B33" t="n">
+      <c r="B33">
         <v>52</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C33">
         <v>11</v>
       </c>
       <c r="D33" t="s">
         <v>9</v>
       </c>
-      <c r="E33" t="n">
+      <c r="E33">
         <v>40</v>
       </c>
       <c r="F33" t="s">
@@ -1546,20 +1564,20 @@
         <v>27</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
         <v>45808</v>
       </c>
-      <c r="B34" t="n">
+      <c r="B34">
         <v>117</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C34">
         <v>20</v>
       </c>
       <c r="D34" t="s">
         <v>14</v>
       </c>
-      <c r="E34" t="n">
+      <c r="E34">
         <v>115</v>
       </c>
       <c r="F34" t="s">
@@ -1575,20 +1593,20 @@
         <v>75</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
         <v>45809</v>
       </c>
-      <c r="B35" t="n">
+      <c r="B35">
         <v>47</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C35">
         <v>110</v>
       </c>
       <c r="D35" t="s">
         <v>26</v>
       </c>
-      <c r="E35" t="n">
+      <c r="E35">
         <v>60</v>
       </c>
       <c r="F35" t="s">
@@ -1604,20 +1622,20 @@
         <v>67</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
         <v>45810</v>
       </c>
-      <c r="B36" t="n">
+      <c r="B36">
         <v>7</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C36">
         <v>33</v>
       </c>
       <c r="D36" t="s">
         <v>36</v>
       </c>
-      <c r="E36" t="n">
+      <c r="E36">
         <v>31</v>
       </c>
       <c r="F36" t="s">
@@ -1633,20 +1651,20 @@
         <v>69</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
         <v>45811</v>
       </c>
-      <c r="B37" t="n">
+      <c r="B37">
         <v>25</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C37">
         <v>10</v>
       </c>
       <c r="D37" t="s">
         <v>36</v>
       </c>
-      <c r="E37" t="n">
+      <c r="E37">
         <v>53</v>
       </c>
       <c r="F37" t="s">
@@ -1662,20 +1680,20 @@
         <v>23</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
         <v>45812</v>
       </c>
-      <c r="B38" t="n">
+      <c r="B38">
         <v>29</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C38">
         <v>10</v>
       </c>
       <c r="D38" t="s">
         <v>26</v>
       </c>
-      <c r="E38" t="n">
+      <c r="E38">
         <v>43</v>
       </c>
       <c r="F38" t="s">
@@ -1691,20 +1709,20 @@
         <v>23</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
         <v>45813</v>
       </c>
-      <c r="B39" t="n">
+      <c r="B39">
         <v>57</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C39">
         <v>8</v>
       </c>
       <c r="D39" t="s">
         <v>14</v>
       </c>
-      <c r="E39" t="n">
+      <c r="E39">
         <v>91</v>
       </c>
       <c r="F39" t="s">
@@ -1720,20 +1738,20 @@
         <v>78</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
         <v>45814</v>
       </c>
-      <c r="B40" t="n">
+      <c r="B40">
         <v>25</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C40">
         <v>20</v>
       </c>
       <c r="D40" t="s">
         <v>14</v>
       </c>
-      <c r="E40" t="n">
+      <c r="E40">
         <v>88</v>
       </c>
       <c r="F40" t="s">
@@ -1749,23 +1767,11 @@
         <v>79</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>45814</v>
-      </c>
-      <c r="B41"/>
-      <c r="C41" t="n">
-        <v>20</v>
-      </c>
-      <c r="D41"/>
-      <c r="E41"/>
-      <c r="F41"/>
-      <c r="G41"/>
-      <c r="H41"/>
-      <c r="I41"/>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/projects/LinkedIn_games/LinkedIn_games_data.xlsx
+++ b/projects/LinkedIn_games/LinkedIn_games_data.xlsx
@@ -1,272 +1,265 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hullacuk-my.sharepoint.com/personal/c_ho-2023_hull_ac_uk/Documents/Github/Quarto-Website/PersonalWebsite/projects/LinkedIn_games/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_DFEE713E1D71EDF10AC4204E5F3B96EEB4031182" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7C713B46-AA46-4D59-90E0-5378E78BD8CE}"/>
+  <workbookPr date1904="false"/>
   <bookViews>
-    <workbookView xWindow="2850" yWindow="1095" windowWidth="18000" windowHeight="10440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="80">
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>CW_T</t>
-  </si>
-  <si>
-    <t>CW_Z</t>
-  </si>
-  <si>
-    <t>CW_P</t>
-  </si>
-  <si>
-    <t>CW_C</t>
-  </si>
-  <si>
-    <t>PM_T</t>
-  </si>
-  <si>
-    <t>PM_Z</t>
-  </si>
-  <si>
-    <t>PM_P</t>
-  </si>
-  <si>
-    <t>PM_C</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>61</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>56</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>66</t>
-  </si>
-  <si>
-    <t>68</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>87</t>
-  </si>
-  <si>
-    <t>47</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>77</t>
-  </si>
-  <si>
-    <t>239</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>112</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>64</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>54</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>81</t>
-  </si>
-  <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t>69</t>
-  </si>
-  <si>
-    <t>65</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>74</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>63</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>260</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>159</t>
-  </si>
-  <si>
-    <t>58</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>55</t>
-  </si>
-  <si>
-    <t>144</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>219</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>85</t>
-  </si>
-  <si>
-    <t>99</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t>135</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>167</t>
-  </si>
-  <si>
-    <t>168</t>
-  </si>
-  <si>
-    <t>73</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>70</t>
-  </si>
-  <si>
-    <t>137</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
+  <si>
+    <t xml:space="preserve">date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CW_T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CW_Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CW_P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CW_C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PM_T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PM_Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PM_P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PM_C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">87</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">77</t>
+  </si>
+  <si>
+    <t xml:space="preserve">239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">81</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">69</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">74</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">260</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">85</t>
+  </si>
+  <si>
+    <t xml:space="preserve">99</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">73</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">70</t>
+  </si>
+  <si>
+    <t xml:space="preserve">137</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -302,21 +295,12 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -598,16 +582,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41:C41"/>
-    </sheetView>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -636,20 +618,20 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>45776</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="n">
         <v>32</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="n">
         <v>15</v>
       </c>
       <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="n">
         <v>105</v>
       </c>
       <c r="F2" t="s">
@@ -665,20 +647,20 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>45777</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="n">
         <v>51</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="n">
         <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>14</v>
       </c>
-      <c r="E3">
+      <c r="E3" t="n">
         <v>47</v>
       </c>
       <c r="F3" t="s">
@@ -694,20 +676,20 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+    <row r="4">
+      <c r="A4" s="1" t="n">
         <v>45778</v>
       </c>
-      <c r="B4">
+      <c r="B4" t="n">
         <v>61</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="n">
         <v>23</v>
       </c>
       <c r="D4" t="s">
         <v>14</v>
       </c>
-      <c r="E4">
+      <c r="E4" t="n">
         <v>37</v>
       </c>
       <c r="F4" t="s">
@@ -723,20 +705,20 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+    <row r="5">
+      <c r="A5" s="1" t="n">
         <v>45779</v>
       </c>
-      <c r="B5">
+      <c r="B5" t="n">
         <v>131</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="n">
         <v>46</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
       </c>
-      <c r="E5">
+      <c r="E5" t="n">
         <v>52</v>
       </c>
       <c r="F5" t="s">
@@ -752,20 +734,20 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+    <row r="6">
+      <c r="A6" s="1" t="n">
         <v>45780</v>
       </c>
-      <c r="B6">
+      <c r="B6" t="n">
         <v>154</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="n">
         <v>40</v>
       </c>
       <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="E6">
+      <c r="E6" t="n">
         <v>82</v>
       </c>
       <c r="F6" t="s">
@@ -781,20 +763,20 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+    <row r="7">
+      <c r="A7" s="1" t="n">
         <v>45781</v>
       </c>
-      <c r="B7">
+      <c r="B7" t="n">
         <v>65</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="n">
         <v>85</v>
       </c>
       <c r="D7" t="s">
         <v>12</v>
       </c>
-      <c r="E7">
+      <c r="E7" t="n">
         <v>108</v>
       </c>
       <c r="F7" t="s">
@@ -810,20 +792,20 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+    <row r="8">
+      <c r="A8" s="1" t="n">
         <v>45782</v>
       </c>
-      <c r="B8">
+      <c r="B8" t="n">
         <v>22</v>
       </c>
-      <c r="C8">
+      <c r="C8" t="n">
         <v>8</v>
       </c>
       <c r="D8" t="s">
         <v>14</v>
       </c>
-      <c r="E8">
+      <c r="E8" t="n">
         <v>41</v>
       </c>
       <c r="F8" t="s">
@@ -839,20 +821,20 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+    <row r="9">
+      <c r="A9" s="1" t="n">
         <v>45783</v>
       </c>
-      <c r="B9">
+      <c r="B9" t="n">
         <v>30</v>
       </c>
-      <c r="C9">
+      <c r="C9" t="n">
         <v>7</v>
       </c>
       <c r="D9" t="s">
         <v>14</v>
       </c>
-      <c r="E9">
+      <c r="E9" t="n">
         <v>39</v>
       </c>
       <c r="F9" t="s">
@@ -868,20 +850,20 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+    <row r="10">
+      <c r="A10" s="1" t="n">
         <v>45784</v>
       </c>
-      <c r="B10">
+      <c r="B10" t="n">
         <v>37</v>
       </c>
-      <c r="C10">
+      <c r="C10" t="n">
         <v>8</v>
       </c>
       <c r="D10" t="s">
         <v>12</v>
       </c>
-      <c r="E10">
+      <c r="E10" t="n">
         <v>89</v>
       </c>
       <c r="F10" t="s">
@@ -897,20 +879,20 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+    <row r="11">
+      <c r="A11" s="1" t="n">
         <v>45785</v>
       </c>
-      <c r="B11">
+      <c r="B11" t="n">
         <v>40</v>
       </c>
-      <c r="C11">
+      <c r="C11" t="n">
         <v>29</v>
       </c>
       <c r="D11" t="s">
         <v>12</v>
       </c>
-      <c r="E11">
+      <c r="E11" t="n">
         <v>69</v>
       </c>
       <c r="F11" t="s">
@@ -926,20 +908,20 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
+    <row r="12">
+      <c r="A12" s="1" t="n">
         <v>45786</v>
       </c>
-      <c r="B12">
+      <c r="B12" t="n">
         <v>55</v>
       </c>
-      <c r="C12">
+      <c r="C12" t="n">
         <v>14</v>
       </c>
       <c r="D12" t="s">
         <v>26</v>
       </c>
-      <c r="E12">
+      <c r="E12" t="n">
         <v>36</v>
       </c>
       <c r="F12" t="s">
@@ -955,20 +937,20 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+    <row r="13">
+      <c r="A13" s="1" t="n">
         <v>45787</v>
       </c>
-      <c r="B13">
+      <c r="B13" t="n">
         <v>123</v>
       </c>
-      <c r="C13">
+      <c r="C13" t="n">
         <v>56</v>
       </c>
       <c r="D13" t="s">
         <v>36</v>
       </c>
-      <c r="E13">
+      <c r="E13" t="n">
         <v>69</v>
       </c>
       <c r="F13" t="s">
@@ -984,20 +966,20 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
+    <row r="14">
+      <c r="A14" s="1" t="n">
         <v>45788</v>
       </c>
-      <c r="B14">
+      <c r="B14" t="n">
         <v>36</v>
       </c>
-      <c r="C14">
+      <c r="C14" t="n">
         <v>49</v>
       </c>
       <c r="D14" t="s">
         <v>26</v>
       </c>
-      <c r="E14">
+      <c r="E14" t="n">
         <v>63</v>
       </c>
       <c r="F14" t="s">
@@ -1013,20 +995,20 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
+    <row r="15">
+      <c r="A15" s="1" t="n">
         <v>45789</v>
       </c>
-      <c r="B15">
+      <c r="B15" t="n">
         <v>28</v>
       </c>
-      <c r="C15">
+      <c r="C15" t="n">
         <v>11</v>
       </c>
       <c r="D15" t="s">
         <v>14</v>
       </c>
-      <c r="E15">
+      <c r="E15" t="n">
         <v>71</v>
       </c>
       <c r="F15" t="s">
@@ -1042,20 +1024,20 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
+    <row r="16">
+      <c r="A16" s="1" t="n">
         <v>45790</v>
       </c>
-      <c r="B16">
+      <c r="B16" t="n">
         <v>31</v>
       </c>
-      <c r="C16">
+      <c r="C16" t="n">
         <v>9</v>
       </c>
       <c r="D16" t="s">
         <v>12</v>
       </c>
-      <c r="E16">
+      <c r="E16" t="n">
         <v>49</v>
       </c>
       <c r="F16" t="s">
@@ -1071,20 +1053,20 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
+    <row r="17">
+      <c r="A17" s="1" t="n">
         <v>45791</v>
       </c>
-      <c r="B17">
+      <c r="B17" t="n">
         <v>64</v>
       </c>
-      <c r="C17">
+      <c r="C17" t="n">
         <v>8</v>
       </c>
       <c r="D17" t="s">
         <v>12</v>
       </c>
-      <c r="E17">
+      <c r="E17" t="n">
         <v>42</v>
       </c>
       <c r="F17" t="s">
@@ -1100,20 +1082,20 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
+    <row r="18">
+      <c r="A18" s="1" t="n">
         <v>45792</v>
       </c>
-      <c r="B18">
+      <c r="B18" t="n">
         <v>90</v>
       </c>
-      <c r="C18">
+      <c r="C18" t="n">
         <v>246</v>
       </c>
       <c r="D18" t="s">
         <v>26</v>
       </c>
-      <c r="E18">
+      <c r="E18" t="n">
         <v>57</v>
       </c>
       <c r="F18" t="s">
@@ -1129,20 +1111,20 @@
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
+    <row r="19">
+      <c r="A19" s="1" t="n">
         <v>45793</v>
       </c>
-      <c r="B19">
+      <c r="B19" t="n">
         <v>30</v>
       </c>
-      <c r="C19">
+      <c r="C19" t="n">
         <v>15</v>
       </c>
       <c r="D19" t="s">
         <v>26</v>
       </c>
-      <c r="E19">
+      <c r="E19" t="n">
         <v>78</v>
       </c>
       <c r="F19" t="s">
@@ -1158,20 +1140,20 @@
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
+    <row r="20">
+      <c r="A20" s="1" t="n">
         <v>45794</v>
       </c>
-      <c r="B20">
+      <c r="B20" t="n">
         <v>38</v>
       </c>
-      <c r="C20">
+      <c r="C20" t="n">
         <v>45</v>
       </c>
       <c r="D20" t="s">
         <v>14</v>
       </c>
-      <c r="E20">
+      <c r="E20" t="n">
         <v>99</v>
       </c>
       <c r="F20" t="s">
@@ -1187,20 +1169,20 @@
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
+    <row r="21">
+      <c r="A21" s="1" t="n">
         <v>45795</v>
       </c>
-      <c r="B21">
+      <c r="B21" t="n">
         <v>39</v>
       </c>
-      <c r="C21">
+      <c r="C21" t="n">
         <v>54</v>
       </c>
       <c r="D21" t="s">
         <v>14</v>
       </c>
-      <c r="E21">
+      <c r="E21" t="n">
         <v>46</v>
       </c>
       <c r="F21" t="s">
@@ -1216,20 +1198,20 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
+    <row r="22">
+      <c r="A22" s="1" t="n">
         <v>45796</v>
       </c>
-      <c r="B22">
+      <c r="B22" t="n">
         <v>17</v>
       </c>
-      <c r="C22">
+      <c r="C22" t="n">
         <v>22</v>
       </c>
       <c r="D22" t="s">
         <v>9</v>
       </c>
-      <c r="E22">
+      <c r="E22" t="n">
         <v>64</v>
       </c>
       <c r="F22" t="s">
@@ -1245,20 +1227,20 @@
         <v>59</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
+    <row r="23">
+      <c r="A23" s="1" t="n">
         <v>45797</v>
       </c>
-      <c r="B23">
+      <c r="B23" t="n">
         <v>31</v>
       </c>
-      <c r="C23">
+      <c r="C23" t="n">
         <v>12</v>
       </c>
       <c r="D23" t="s">
         <v>26</v>
       </c>
-      <c r="E23">
+      <c r="E23" t="n">
         <v>38</v>
       </c>
       <c r="F23" t="s">
@@ -1274,20 +1256,20 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
+    <row r="24">
+      <c r="A24" s="1" t="n">
         <v>45798</v>
       </c>
-      <c r="B24">
+      <c r="B24" t="n">
         <v>40</v>
       </c>
-      <c r="C24">
+      <c r="C24" t="n">
         <v>17</v>
       </c>
       <c r="D24" t="s">
         <v>12</v>
       </c>
-      <c r="E24">
+      <c r="E24" t="n">
         <v>63</v>
       </c>
       <c r="F24" t="s">
@@ -1303,20 +1285,20 @@
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
+    <row r="25">
+      <c r="A25" s="1" t="n">
         <v>45799</v>
       </c>
-      <c r="B25">
+      <c r="B25" t="n">
         <v>32</v>
       </c>
-      <c r="C25">
+      <c r="C25" t="n">
         <v>46</v>
       </c>
       <c r="D25" t="s">
         <v>14</v>
       </c>
-      <c r="E25">
+      <c r="E25" t="n">
         <v>35</v>
       </c>
       <c r="F25" t="s">
@@ -1332,20 +1314,20 @@
         <v>62</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
+    <row r="26">
+      <c r="A26" s="1" t="n">
         <v>45800</v>
       </c>
-      <c r="B26">
+      <c r="B26" t="n">
         <v>60</v>
       </c>
-      <c r="C26">
+      <c r="C26" t="n">
         <v>19</v>
       </c>
       <c r="D26" t="s">
         <v>26</v>
       </c>
-      <c r="E26">
+      <c r="E26" t="n">
         <v>42</v>
       </c>
       <c r="F26" t="s">
@@ -1361,20 +1343,20 @@
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
+    <row r="27">
+      <c r="A27" s="1" t="n">
         <v>45801</v>
       </c>
-      <c r="B27">
+      <c r="B27" t="n">
         <v>43</v>
       </c>
-      <c r="C27">
+      <c r="C27" t="n">
         <v>27</v>
       </c>
       <c r="D27" t="s">
         <v>26</v>
       </c>
-      <c r="E27">
+      <c r="E27" t="n">
         <v>70</v>
       </c>
       <c r="F27" t="s">
@@ -1390,20 +1372,20 @@
         <v>66</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
+    <row r="28">
+      <c r="A28" s="1" t="n">
         <v>45802</v>
       </c>
-      <c r="B28">
+      <c r="B28" t="n">
         <v>40</v>
       </c>
-      <c r="C28">
+      <c r="C28" t="n">
         <v>15</v>
       </c>
       <c r="D28" t="s">
         <v>26</v>
       </c>
-      <c r="E28">
+      <c r="E28" t="n">
         <v>46</v>
       </c>
       <c r="F28" t="s">
@@ -1419,20 +1401,20 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
+    <row r="29">
+      <c r="A29" s="1" t="n">
         <v>45803</v>
       </c>
-      <c r="B29">
+      <c r="B29" t="n">
         <v>19</v>
       </c>
-      <c r="C29">
+      <c r="C29" t="n">
         <v>12</v>
       </c>
       <c r="D29" t="s">
         <v>14</v>
       </c>
-      <c r="E29">
+      <c r="E29" t="n">
         <v>87</v>
       </c>
       <c r="F29" t="s">
@@ -1448,20 +1430,20 @@
         <v>69</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
+    <row r="30">
+      <c r="A30" s="1" t="n">
         <v>45804</v>
       </c>
-      <c r="B30">
+      <c r="B30" t="n">
         <v>31</v>
       </c>
-      <c r="C30">
+      <c r="C30" t="n">
         <v>13</v>
       </c>
       <c r="D30" t="s">
         <v>26</v>
       </c>
-      <c r="E30">
+      <c r="E30" t="n">
         <v>46</v>
       </c>
       <c r="F30" t="s">
@@ -1477,20 +1459,20 @@
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
+    <row r="31">
+      <c r="A31" s="1" t="n">
         <v>45805</v>
       </c>
-      <c r="B31">
+      <c r="B31" t="n">
         <v>31</v>
       </c>
-      <c r="C31">
+      <c r="C31" t="n">
         <v>28</v>
       </c>
       <c r="D31" t="s">
         <v>14</v>
       </c>
-      <c r="E31">
+      <c r="E31" t="n">
         <v>45</v>
       </c>
       <c r="F31" t="s">
@@ -1506,20 +1488,20 @@
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
+    <row r="32">
+      <c r="A32" s="1" t="n">
         <v>45806</v>
       </c>
-      <c r="B32">
+      <c r="B32" t="n">
         <v>57</v>
       </c>
-      <c r="C32">
+      <c r="C32" t="n">
         <v>10</v>
       </c>
       <c r="D32" t="s">
         <v>12</v>
       </c>
-      <c r="E32">
+      <c r="E32" t="n">
         <v>67</v>
       </c>
       <c r="F32" t="s">
@@ -1535,20 +1517,20 @@
         <v>72</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
+    <row r="33">
+      <c r="A33" s="1" t="n">
         <v>45807</v>
       </c>
-      <c r="B33">
+      <c r="B33" t="n">
         <v>52</v>
       </c>
-      <c r="C33">
+      <c r="C33" t="n">
         <v>11</v>
       </c>
       <c r="D33" t="s">
         <v>9</v>
       </c>
-      <c r="E33">
+      <c r="E33" t="n">
         <v>40</v>
       </c>
       <c r="F33" t="s">
@@ -1564,20 +1546,20 @@
         <v>27</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
+    <row r="34">
+      <c r="A34" s="1" t="n">
         <v>45808</v>
       </c>
-      <c r="B34">
+      <c r="B34" t="n">
         <v>117</v>
       </c>
-      <c r="C34">
+      <c r="C34" t="n">
         <v>20</v>
       </c>
       <c r="D34" t="s">
         <v>14</v>
       </c>
-      <c r="E34">
+      <c r="E34" t="n">
         <v>115</v>
       </c>
       <c r="F34" t="s">
@@ -1593,20 +1575,20 @@
         <v>75</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
+    <row r="35">
+      <c r="A35" s="1" t="n">
         <v>45809</v>
       </c>
-      <c r="B35">
+      <c r="B35" t="n">
         <v>47</v>
       </c>
-      <c r="C35">
+      <c r="C35" t="n">
         <v>110</v>
       </c>
       <c r="D35" t="s">
         <v>26</v>
       </c>
-      <c r="E35">
+      <c r="E35" t="n">
         <v>60</v>
       </c>
       <c r="F35" t="s">
@@ -1622,20 +1604,20 @@
         <v>67</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
+    <row r="36">
+      <c r="A36" s="1" t="n">
         <v>45810</v>
       </c>
-      <c r="B36">
+      <c r="B36" t="n">
         <v>7</v>
       </c>
-      <c r="C36">
+      <c r="C36" t="n">
         <v>33</v>
       </c>
       <c r="D36" t="s">
         <v>36</v>
       </c>
-      <c r="E36">
+      <c r="E36" t="n">
         <v>31</v>
       </c>
       <c r="F36" t="s">
@@ -1651,20 +1633,20 @@
         <v>69</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="1">
+    <row r="37">
+      <c r="A37" s="1" t="n">
         <v>45811</v>
       </c>
-      <c r="B37">
+      <c r="B37" t="n">
         <v>25</v>
       </c>
-      <c r="C37">
+      <c r="C37" t="n">
         <v>10</v>
       </c>
       <c r="D37" t="s">
         <v>36</v>
       </c>
-      <c r="E37">
+      <c r="E37" t="n">
         <v>53</v>
       </c>
       <c r="F37" t="s">
@@ -1680,20 +1662,20 @@
         <v>23</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="1">
+    <row r="38">
+      <c r="A38" s="1" t="n">
         <v>45812</v>
       </c>
-      <c r="B38">
+      <c r="B38" t="n">
         <v>29</v>
       </c>
-      <c r="C38">
+      <c r="C38" t="n">
         <v>10</v>
       </c>
       <c r="D38" t="s">
         <v>26</v>
       </c>
-      <c r="E38">
+      <c r="E38" t="n">
         <v>43</v>
       </c>
       <c r="F38" t="s">
@@ -1709,20 +1691,20 @@
         <v>23</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="1">
+    <row r="39">
+      <c r="A39" s="1" t="n">
         <v>45813</v>
       </c>
-      <c r="B39">
+      <c r="B39" t="n">
         <v>57</v>
       </c>
-      <c r="C39">
+      <c r="C39" t="n">
         <v>8</v>
       </c>
       <c r="D39" t="s">
         <v>14</v>
       </c>
-      <c r="E39">
+      <c r="E39" t="n">
         <v>91</v>
       </c>
       <c r="F39" t="s">
@@ -1738,20 +1720,20 @@
         <v>78</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="1">
+    <row r="40">
+      <c r="A40" s="1" t="n">
         <v>45814</v>
       </c>
-      <c r="B40">
+      <c r="B40" t="n">
         <v>25</v>
       </c>
-      <c r="C40">
+      <c r="C40" t="n">
         <v>20</v>
       </c>
       <c r="D40" t="s">
         <v>14</v>
       </c>
-      <c r="E40">
+      <c r="E40" t="n">
         <v>88</v>
       </c>
       <c r="F40" t="s">
@@ -1767,11 +1749,8 @@
         <v>79</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="1"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>